--- a/customize_erpnext/api/bulk_update_scripts/create_material_issue_teamplate.xlsx
+++ b/customize_erpnext/api/bulk_update_scripts/create_material_issue_teamplate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\son.nt\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A98554D-EEEB-4D47-8A42-FBEB29A10168}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE6961A9-7AC7-4065-BD4B-CA9135BC5BD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6072" yWindow="1596" windowWidth="12456" windowHeight="7716" xr2:uid="{6D1FB37B-ACCB-49B7-B149-95779F24E43C}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6D1FB37B-ACCB-49B7-B149-95779F24E43C}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="2" r:id="rId1"/>
@@ -92,23 +92,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1953" uniqueCount="296">
   <si>
     <t>Md</t>
   </si>
   <si>
-    <t>M007J</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
-    <t>Cherry Mahogany</t>
-  </si>
-  <si>
-    <t>Forged Iron</t>
-  </si>
-  <si>
     <t>PX010884</t>
   </si>
   <si>
@@ -124,9 +115,6 @@
     <t>Pro</t>
   </si>
   <si>
-    <t>Iron Gate/North Atlantic</t>
-  </si>
-  <si>
     <t>STIO,OV-TIVNQN-SEA 2.8</t>
   </si>
   <si>
@@ -181,15 +169,6 @@
     <t>custom_fg_style</t>
   </si>
   <si>
-    <t>All Color</t>
-  </si>
-  <si>
-    <t>Iron Forged/Cherry Mahogany</t>
-  </si>
-  <si>
-    <t>All Size</t>
-  </si>
-  <si>
     <t>OV-TIQNVN-AIR 3. 20</t>
   </si>
   <si>
@@ -290,6 +269,717 @@
   </si>
   <si>
     <t>- System will validate available quantity before import</t>
+  </si>
+  <si>
+    <t>PX011065</t>
+  </si>
+  <si>
+    <t>PX010599</t>
+  </si>
+  <si>
+    <t>PX008526</t>
+  </si>
+  <si>
+    <t>PX011055</t>
+  </si>
+  <si>
+    <t>PX011347</t>
+  </si>
+  <si>
+    <t>PX011348</t>
+  </si>
+  <si>
+    <t>PX009712</t>
+  </si>
+  <si>
+    <t>PX011083</t>
+  </si>
+  <si>
+    <t>PX011808</t>
+  </si>
+  <si>
+    <t>ALL SIZE</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>471</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Điều Chỉnh Do Nhập Sai Mã Art</t>
+  </si>
+  <si>
+    <t>Chuyển Đi Bvt</t>
+  </si>
+  <si>
+    <t>Xuất Hàng Tiêu Hủy</t>
+  </si>
+  <si>
+    <t>ALL COLOR</t>
+  </si>
+  <si>
+    <t>CHERRY MAHOGANY</t>
+  </si>
+  <si>
+    <t>FORGED IRON</t>
+  </si>
+  <si>
+    <t>IRON FORGED/CHERRY MAHOGANY</t>
+  </si>
+  <si>
+    <t>IRON GATE/NORTH ATLANTIC</t>
+  </si>
+  <si>
+    <t>IRON/CHERRY MAHOGANY</t>
+  </si>
+  <si>
+    <t>FORGED IRON/CHERRY MAHOGANY</t>
+  </si>
+  <si>
+    <t>OV-TIQNVN-SHIP 6.17</t>
+  </si>
+  <si>
+    <t>O202407003-01</t>
+  </si>
+  <si>
+    <t>KO/TRH 0023/25 (22143)</t>
+  </si>
+  <si>
+    <t>IV00083982-1</t>
+  </si>
+  <si>
+    <t>TX0325-006</t>
+  </si>
+  <si>
+    <t>SI-427215</t>
+  </si>
+  <si>
+    <t>1C24TYY-193</t>
+  </si>
+  <si>
+    <t>3214580526</t>
+  </si>
+  <si>
+    <t>T20240520-06</t>
+  </si>
+  <si>
+    <t>BF-113221</t>
+  </si>
+  <si>
+    <t>IV00071711-1</t>
+  </si>
+  <si>
+    <t>KO/TRH 0031/24 (22143)</t>
+  </si>
+  <si>
+    <t>A-24050236</t>
+  </si>
+  <si>
+    <t>K20230713-06</t>
+  </si>
+  <si>
+    <t>IV00066606-1</t>
+  </si>
+  <si>
+    <t>A-23070146</t>
+  </si>
+  <si>
+    <t>KO/TRH 0060/23 (22115)</t>
+  </si>
+  <si>
+    <t>KO/TRH 0017/24 (22143)</t>
+  </si>
+  <si>
+    <t>KO/TRH 0045/24 (22143)</t>
+  </si>
+  <si>
+    <t>GO10264-358D24</t>
+  </si>
+  <si>
+    <t>OV-TRYSTS50023-TIQN-SEA9.11</t>
+  </si>
+  <si>
+    <t>A-23060290</t>
+  </si>
+  <si>
+    <t>SIN2306019388</t>
+  </si>
+  <si>
+    <t>SIN2404014865</t>
+  </si>
+  <si>
+    <t>OV-AIR-TIQN-T45Y28</t>
+  </si>
+  <si>
+    <t>IN-23-08621</t>
+  </si>
+  <si>
+    <t>IN-24-05891</t>
+  </si>
+  <si>
+    <t>18072023</t>
+  </si>
+  <si>
+    <t>MS-21460032</t>
+  </si>
+  <si>
+    <t>T21-240716D</t>
+  </si>
+  <si>
+    <t>KO/TRH 0025/24 (22143)</t>
+  </si>
+  <si>
+    <t>T20231010-08</t>
+  </si>
+  <si>
+    <t>T20230721-01</t>
+  </si>
+  <si>
+    <t>IN-24-03053</t>
+  </si>
+  <si>
+    <t>SZ20230710</t>
+  </si>
+  <si>
+    <t>OV-TIQN-SEA 5.20</t>
+  </si>
+  <si>
+    <t>O20240115-01B</t>
+  </si>
+  <si>
+    <t>IV00057029</t>
+  </si>
+  <si>
+    <t>IE00130273</t>
+  </si>
+  <si>
+    <t>IE00132183</t>
+  </si>
+  <si>
+    <t>ST0452HSMP-3D Forged Iron Vital 25Ss</t>
+  </si>
+  <si>
+    <t>ST0452HSMP-3D Iron Gate Vital 25Ss</t>
+  </si>
+  <si>
+    <t>ST6206TSPDWR Sedona Sage Vital 24Ss</t>
+  </si>
+  <si>
+    <t>ST6206PERFORATE Black Vital 24Ss</t>
+  </si>
+  <si>
+    <t>ST6206TSPDWR Black Vital 24Ss</t>
+  </si>
+  <si>
+    <t>ST6206PERFORATE Sedona Sage Vital 24Ss</t>
+  </si>
+  <si>
+    <t>PCL02494 Iron Gate/North Atlantic Xl Vital 25Ss</t>
+  </si>
+  <si>
+    <t>PCL02494 Iron Gate/North Atlantic 2Xl Vital 25Ss</t>
+  </si>
+  <si>
+    <t>PCL02494 Forged Iron/Cherry Mahogany L Vital 25Ss</t>
+  </si>
+  <si>
+    <t>PCL02494 Forged Iron/Cherry Mahogany Xl Vital 25Ss</t>
+  </si>
+  <si>
+    <t>8095705 275 76Cm Vital 25Ss</t>
+  </si>
+  <si>
+    <t>E302KT 15Mm Vital 25Ss</t>
+  </si>
+  <si>
+    <t>8095705 301 76Cm Vital 25Ss</t>
+  </si>
+  <si>
+    <t>E302KT 20Mm Vital 25Ss</t>
+  </si>
+  <si>
+    <t>PCL02494 Iron Gate/North Atlantic L Vital 25Ss</t>
+  </si>
+  <si>
+    <t>OFSA3-004188 Vital 25Ss Tushar Rain Jacket</t>
+  </si>
+  <si>
+    <t>DESSICANT Vital 24Ss</t>
+  </si>
+  <si>
+    <t>MTC78 Vital 25Ss</t>
+  </si>
+  <si>
+    <t>AS23-100 100Cm Vital 25Ss</t>
+  </si>
+  <si>
+    <t>8101326 275 20Cm Vital 25Ss</t>
+  </si>
+  <si>
+    <t>8101326 275 18Cm Vital 25Ss</t>
+  </si>
+  <si>
+    <t>BS3524FKD Black Vital 24Ss</t>
+  </si>
+  <si>
+    <t>BS3524FKD Sedona Sage Vital 24Ss</t>
+  </si>
+  <si>
+    <t>CLUT2A Black Vital 24Ss</t>
+  </si>
+  <si>
+    <t>8068065 580 30Cm Vital 24Ss</t>
+  </si>
+  <si>
+    <t>SVUG-S Bk 15Mm Vital 24Ss</t>
+  </si>
+  <si>
+    <t>OFSA3-004188 Vital 24Ss Women Ventus Jacket</t>
+  </si>
+  <si>
+    <t>OFSA3-004188 Vital 24Ss Men'S Ventus Jacket</t>
+  </si>
+  <si>
+    <t>MS1510K Jet Black Vital</t>
+  </si>
+  <si>
+    <t>MS1510K Bering Sea Vital</t>
+  </si>
+  <si>
+    <t>MS1510K Ultimate Gray Vital</t>
+  </si>
+  <si>
+    <t>8060004 578 15Cm Vital 24Ss</t>
+  </si>
+  <si>
+    <t>8060004 320 15Cm Vital 24Ss</t>
+  </si>
+  <si>
+    <t>8068065 580 31Cm Vital 24Ss</t>
+  </si>
+  <si>
+    <t>8068065 580 32Cm Vital 24Ss</t>
+  </si>
+  <si>
+    <t>OV-13921 Black S Vital</t>
+  </si>
+  <si>
+    <t>OV-13921 Gray M Vital</t>
+  </si>
+  <si>
+    <t>OV-13921 Blue M Vital</t>
+  </si>
+  <si>
+    <t>OV-13921 Black M Vital</t>
+  </si>
+  <si>
+    <t>OV-13921 Gray L Vital</t>
+  </si>
+  <si>
+    <t>OV-13921 Blue L Vital</t>
+  </si>
+  <si>
+    <t>OV-13921 Black L Vital</t>
+  </si>
+  <si>
+    <t>OV-13921 Blue 3Xl Vital</t>
+  </si>
+  <si>
+    <t>OV-13921 Black 3Xl Vital</t>
+  </si>
+  <si>
+    <t>OV-13921 Gray 2Xl Vital</t>
+  </si>
+  <si>
+    <t>OV-13921 Blue 2Xl Vital</t>
+  </si>
+  <si>
+    <t>OV-13921 Black 2Xl Vital</t>
+  </si>
+  <si>
+    <t>OV-13921 Blue S Vital</t>
+  </si>
+  <si>
+    <t>SVUG-S Bk 40Mm Vital 24Ss</t>
+  </si>
+  <si>
+    <t>SVUG-S Bk 30Mm Vital 24Ss</t>
+  </si>
+  <si>
+    <t>OV-13921 Gray S Vital</t>
+  </si>
+  <si>
+    <t>OV-13921 Blue Xl Vital</t>
+  </si>
+  <si>
+    <t>OVM940 Black Xl Vital 24Ss</t>
+  </si>
+  <si>
+    <t>OVM940 Black L Vital 24Ss</t>
+  </si>
+  <si>
+    <t>SAS817 Bk Vital 24Ss</t>
+  </si>
+  <si>
+    <t>OVM940 Black 2Xl Vital 24Ss</t>
+  </si>
+  <si>
+    <t>OVW70 Black M Vital 24Ss</t>
+  </si>
+  <si>
+    <t>OVM940 Sage Grey 2Xlt Vital 24Ss</t>
+  </si>
+  <si>
+    <t>ST6206TSPDWR Black Vital</t>
+  </si>
+  <si>
+    <t>OVM940 Sage Grey Xlt Vital 24Ss</t>
+  </si>
+  <si>
+    <t>OVM940 Sage Grey Lt Vital 24Ss</t>
+  </si>
+  <si>
+    <t>OVM940 Black 2Xlt Vital 24Ss</t>
+  </si>
+  <si>
+    <t>OVM940 Sage Grey S Vital 24Ss</t>
+  </si>
+  <si>
+    <t>OVM940 Sage Grey L Vital 24Ss</t>
+  </si>
+  <si>
+    <t>OVM940 Sage Grey Xl Vital 24Ss</t>
+  </si>
+  <si>
+    <t>OVM940 Sage Grey 2Xl Vital 24Ss</t>
+  </si>
+  <si>
+    <t>OVM940 Sage Grey 3Xl Vital 24Ss</t>
+  </si>
+  <si>
+    <t>OVM940 Sage Grey M Vital 24Ss</t>
+  </si>
+  <si>
+    <t>OV-SKY Goblin Blue 2Xl Vital 24Ss</t>
+  </si>
+  <si>
+    <t>OVM-13924 Black Xl Vital</t>
+  </si>
+  <si>
+    <t>OVM-13924 Black L Vital</t>
+  </si>
+  <si>
+    <t>OVM-13924 Black 2Xl Vital</t>
+  </si>
+  <si>
+    <t>OVM-13922 Black Xl Vital</t>
+  </si>
+  <si>
+    <t>OVM-13922 Black M Vital</t>
+  </si>
+  <si>
+    <t>OVM-13922 Black L Vital</t>
+  </si>
+  <si>
+    <t>OVM-13922 Black 3Xl Vital</t>
+  </si>
+  <si>
+    <t>OVM-13922 Black 2Xl Vital</t>
+  </si>
+  <si>
+    <t>OV-13923 Dark Forest Xs Vital</t>
+  </si>
+  <si>
+    <t>OV-13923 Black Xs Vital</t>
+  </si>
+  <si>
+    <t>OV-13923 Dark Forest Xl Vital</t>
+  </si>
+  <si>
+    <t>OV-13923 Black Xl Vital</t>
+  </si>
+  <si>
+    <t>OV-13921 Gray Xl Vital</t>
+  </si>
+  <si>
+    <t>OV-13923 Black 2Xl Vital</t>
+  </si>
+  <si>
+    <t>OV-13923 Dark Forest 2Xl Vital</t>
+  </si>
+  <si>
+    <t>OV-13923 Black 3Xl Vital</t>
+  </si>
+  <si>
+    <t>OV-13923 Dark Forest 3Xl Vital</t>
+  </si>
+  <si>
+    <t>OV-13923 Black L Vital</t>
+  </si>
+  <si>
+    <t>OV-13923 Dark Forest L Vital</t>
+  </si>
+  <si>
+    <t>OV-13923 Black M Vital</t>
+  </si>
+  <si>
+    <t>OV-13923 Dark Forest M Vital</t>
+  </si>
+  <si>
+    <t>OV-13923 Black S Vital</t>
+  </si>
+  <si>
+    <t>OV-13923 Dark Forest S Vital</t>
+  </si>
+  <si>
+    <t>OV-13921 Black Xl Vital</t>
+  </si>
+  <si>
+    <t>OV-SKY Goblin Blue 3Xl Vital 24Ss</t>
+  </si>
+  <si>
+    <t>RE200 15Mm Vital</t>
+  </si>
+  <si>
+    <t>S-1325 9Mm Vital 24Ss</t>
+  </si>
+  <si>
+    <t>P048XS Vital</t>
+  </si>
+  <si>
+    <t>P048XS Vital 24Ss</t>
+  </si>
+  <si>
+    <t>OVW-13924 Black M Vital</t>
+  </si>
+  <si>
+    <t>OVW-13924 Black L Vital</t>
+  </si>
+  <si>
+    <t>OVW-13922 Black Xs Vital</t>
+  </si>
+  <si>
+    <t>OVW-13922 Black S Vital</t>
+  </si>
+  <si>
+    <t>S-1325 9Mm Vital</t>
+  </si>
+  <si>
+    <t>OV-SKY Shale Gray Xl Vital 24Ss</t>
+  </si>
+  <si>
+    <t>OV-SKY Goblin Blue Xl Vital 24Ss</t>
+  </si>
+  <si>
+    <t>OV-SKY Shale Gray 3Xl Vital 24Ss</t>
+  </si>
+  <si>
+    <t>OV-SKY Goblin Blue L Vital 24Ss</t>
+  </si>
+  <si>
+    <t>OV-SKY Shale Gray L Vital 24Ss</t>
+  </si>
+  <si>
+    <t>OV-SKY Shale Gray 2Xl Vital 24Ss</t>
+  </si>
+  <si>
+    <t>OV-SKY Goblin Blue M Vital 24Ss</t>
+  </si>
+  <si>
+    <t>OV-SKY Shale Gray M Vital 24Ss</t>
+  </si>
+  <si>
+    <t>OV-SKY Goblin Blue S Vital 24Ss</t>
+  </si>
+  <si>
+    <t>OV-SKY Shale Gray S Vital 24Ss</t>
+  </si>
+  <si>
+    <t>TI-S-40R Wh 145Cm Vital</t>
+  </si>
+  <si>
+    <t>T45Y28 Trooper Vital 24Ss</t>
+  </si>
+  <si>
+    <t>E79799 Black 20Mm Vital</t>
+  </si>
+  <si>
+    <t>E79799 Black 20Mm Vital 24Ss</t>
+  </si>
+  <si>
+    <t>E79799 Black 10Mm Vital 24Ss</t>
+  </si>
+  <si>
+    <t>E79799 Black 10Mm Vital</t>
+  </si>
+  <si>
+    <t>OVW70 Black Xl Vital 24Ss</t>
+  </si>
+  <si>
+    <t>T-7381 B2 110Cm Vital 24Ss</t>
+  </si>
+  <si>
+    <t>OV-HT-3DEFX(EA) Vital 24Ss</t>
+  </si>
+  <si>
+    <t>H23-6852-YC Bk 56Mm Vital 24Ss</t>
+  </si>
+  <si>
+    <t>3524DWACCK Black Vital</t>
+  </si>
+  <si>
+    <t>3524DWR Black Vital</t>
+  </si>
+  <si>
+    <t>1348316 Black/Black Vital 24Ss</t>
+  </si>
+  <si>
+    <t>1363316 Black/Black Vital</t>
+  </si>
+  <si>
+    <t>OFSA3-004188 Vital Men'S Ventus Hoodie</t>
+  </si>
+  <si>
+    <t>TI-S-25R Wh 145Cm Vital</t>
+  </si>
+  <si>
+    <t>TI-S-25R Wh 145Cm Vital 24Ss</t>
+  </si>
+  <si>
+    <t>OFSA3-004188 Vital Nebo Wind Break - Men'S</t>
+  </si>
+  <si>
+    <t>OFSA3-004188 Vital Vario Jacket - Men'S</t>
+  </si>
+  <si>
+    <t>OFSA3-004188 Vital Vario Jacket - Women'S</t>
+  </si>
+  <si>
+    <t>OFSA3-004188 Vital Women'S Ventus Hoodie</t>
+  </si>
+  <si>
+    <t>OFSA3-004188 Vital Altitude Hoodie - Men'S</t>
+  </si>
+  <si>
+    <t>BS3311FKD Goblin Blue Vital 24Ss</t>
+  </si>
+  <si>
+    <t>BS3311FKD Poppy Seed Vital 24Ss</t>
+  </si>
+  <si>
+    <t>3765661 580 19Cm Vital</t>
+  </si>
+  <si>
+    <t>3765661 580 20Cm Vital</t>
+  </si>
+  <si>
+    <t>3893215 580 70Cm Vital</t>
+  </si>
+  <si>
+    <t>3893215 580 72Cm Vital</t>
+  </si>
+  <si>
+    <t>3893215 580 61Cm Vital</t>
+  </si>
+  <si>
+    <t>6806164 580 60Cm Vital</t>
+  </si>
+  <si>
+    <t>6813275 580 70Cm Vital</t>
+  </si>
+  <si>
+    <t>6581648 580 30Cm Vital</t>
+  </si>
+  <si>
+    <t>6813275 580 72Cm Vital</t>
+  </si>
+  <si>
+    <t>PCL02494 Forged Iron/Cherry Mahogany 2Xl Vital 25Ss</t>
+  </si>
+  <si>
+    <t>8095705 301 81Cm Vital 25Ss</t>
+  </si>
+  <si>
+    <t>8101326 301 23Cm Vital 25Ss</t>
+  </si>
+  <si>
+    <t>8101326 301 18,5Cm Vital 25Ss</t>
+  </si>
+  <si>
+    <t>8095705 301 78,5Cm Vital 25Ss</t>
+  </si>
+  <si>
+    <t>8101326 275 18,5Cm Vital 25Ss</t>
+  </si>
+  <si>
+    <t>8095705 275 78,5Cm Vital 25Ss</t>
+  </si>
+  <si>
+    <t>8095705 275 73,5Cm Vital 25Ss</t>
+  </si>
+  <si>
+    <t>8060004 578 15,5Cm Vital 24Ss</t>
+  </si>
+  <si>
+    <t>8060004 320 15,5Cm Vital 24Ss</t>
+  </si>
+  <si>
+    <t>STG900 2,5Mm Vital</t>
+  </si>
+  <si>
+    <t>STG900 2,5Mm Vital 24Ss</t>
+  </si>
+  <si>
+    <t>OV-SKY Goblin Blue L,Tall Vital 24Ss</t>
+  </si>
+  <si>
+    <t>OV-SKY Shale Gray L,Tall Vital 24Ss</t>
+  </si>
+  <si>
+    <t>OV-SKY Goblin Blue M,Tall Vital 24Ss</t>
+  </si>
+  <si>
+    <t>OV-SKY Goblin Blue Xl,Tall Vital 24Ss</t>
+  </si>
+  <si>
+    <t>OV-SKY Shale Gray Xl,Tall Vital 24Ss</t>
+  </si>
+  <si>
+    <t>OV-SKY Shale Gray M,Tall Vital 24Ss</t>
+  </si>
+  <si>
+    <t>3765661 580 18,5Cm Vital</t>
+  </si>
+  <si>
+    <t>3893215 580 63,5Cm Vital</t>
+  </si>
+  <si>
+    <t>3893215 580 67,5Cm Vital</t>
+  </si>
+  <si>
+    <t>3893215 580 74,5Cm Vital</t>
+  </si>
+  <si>
+    <t>3765661 580 19,5Cm Vital</t>
+  </si>
+  <si>
+    <t>6581648 580 28,5Cm Vital</t>
+  </si>
+  <si>
+    <t>6581648 580 30,5Cm Vital</t>
+  </si>
+  <si>
+    <t>8101326 301 19,5Cm Vital 25Ss</t>
+  </si>
+  <si>
+    <t>DC001</t>
   </si>
 </sst>
 </file>
@@ -324,7 +1014,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -347,6 +1037,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -355,11 +1058,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -372,7 +1075,21 @@
       <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -690,8 +1407,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{23D4B30C-D8CA-4512-B19C-3C1EA571E46D}" name="Table2" displayName="Table2" ref="A1:N11" totalsRowShown="0">
-  <autoFilter ref="A1:N11" xr:uid="{23D4B30C-D8CA-4512-B19C-3C1EA571E46D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{23D4B30C-D8CA-4512-B19C-3C1EA571E46D}" name="Table2" displayName="Table2" ref="A1:N197" totalsRowShown="0">
+  <autoFilter ref="A1:N197" xr:uid="{23D4B30C-D8CA-4512-B19C-3C1EA571E46D}"/>
   <tableColumns count="14">
     <tableColumn id="4" xr3:uid="{43B4B1C8-2F98-4655-B691-168EDDCCE375}" name="No"/>
     <tableColumn id="1" xr3:uid="{AC16C6E8-21F8-4CEF-AECE-A640C10BF15C}" name="posting_date" dataDxfId="2"/>
@@ -1029,10 +1746,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2F2DFC9-0A08-48A0-B74A-6E6476E5DA0C}">
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N197"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A11"/>
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1053,486 +1770,7953 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" t="s">
         <v>19</v>
       </c>
-      <c r="C1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L1" t="s">
-        <v>23</v>
-      </c>
       <c r="M1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="N1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="3">
-        <v>45757</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>41</v>
+      <c r="B2" s="5">
+        <v>45748</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="E2" t="s">
         <v>0</v>
       </c>
       <c r="F2" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G2" t="s">
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="I2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J2" t="s">
         <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>29</v>
+        <v>76</v>
       </c>
       <c r="L2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="3">
-        <v>45757</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>41</v>
+      <c r="B3" s="5">
+        <v>45748</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="E3" t="s">
         <v>0</v>
       </c>
       <c r="F3" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G3" t="s">
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="I3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J3" t="s">
         <v>0</v>
       </c>
       <c r="K3" t="s">
-        <v>29</v>
+        <v>76</v>
       </c>
       <c r="L3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M3" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="N3" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="3">
-        <v>45765</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>41</v>
+      <c r="B4" s="5">
+        <v>45756</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>295</v>
       </c>
       <c r="E4" t="s">
         <v>0</v>
       </c>
       <c r="F4" s="2">
-        <v>2</v>
+        <v>93.27</v>
       </c>
       <c r="G4" t="s">
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" t="s">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="L4" t="s">
-        <v>2</v>
+        <v>73</v>
       </c>
       <c r="M4" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="N4" t="s">
-        <v>33</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="3">
-        <v>45765</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>41</v>
+      <c r="B5" s="5">
+        <v>45756</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>295</v>
       </c>
       <c r="E5" t="s">
         <v>0</v>
       </c>
       <c r="F5" s="2">
-        <v>2</v>
+        <v>277.52</v>
       </c>
       <c r="G5" t="s">
         <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" t="s">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="L5" t="s">
-        <v>2</v>
+        <v>73</v>
       </c>
       <c r="M5" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="N5" t="s">
-        <v>36</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="3">
-        <v>45797</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>41</v>
+      <c r="B6" s="5">
+        <v>45757</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F6" s="2">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="G6" t="s">
         <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>2</v>
+        <v>68</v>
       </c>
       <c r="I6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>3</v>
+        <v>76</v>
       </c>
       <c r="L6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M6" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="N6" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="3">
-        <v>45797</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>41</v>
+      <c r="B7" s="5">
+        <v>45757</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F7" s="2">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="G7" t="s">
         <v>1</v>
       </c>
       <c r="H7" t="s">
-        <v>2</v>
+        <v>68</v>
       </c>
       <c r="I7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="K7" t="s">
-        <v>4</v>
+        <v>76</v>
       </c>
       <c r="L7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M7" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N7" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="3">
-        <v>45804</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>41</v>
+      <c r="B8" s="5">
+        <v>45765</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E8" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F8" s="2">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="G8" t="s">
         <v>1</v>
       </c>
       <c r="H8" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="I8" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="L8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M8" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="N8" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="3">
-        <v>45804</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>41</v>
+      <c r="B9" s="5">
+        <v>45765</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E9" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F9" s="2">
-        <v>51</v>
+        <v>2</v>
       </c>
       <c r="G9" t="s">
         <v>1</v>
       </c>
       <c r="H9" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="I9" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="K9" t="s">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="L9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M9" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="N9" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="3">
-        <v>45804</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>41</v>
+      <c r="B10" s="5">
+        <v>45785</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="E10" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F10" s="2">
-        <v>268</v>
+        <v>25.45</v>
       </c>
       <c r="G10" t="s">
         <v>1</v>
       </c>
       <c r="H10" t="s">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="K10" t="s">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="L10" t="s">
-        <v>2</v>
+        <v>74</v>
       </c>
       <c r="M10" t="s">
-        <v>18</v>
+        <v>83</v>
       </c>
       <c r="N10" t="s">
-        <v>38</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="5">
+        <v>45785</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="2">
+        <v>37.49</v>
+      </c>
+      <c r="G11" t="s">
+        <v>1</v>
+      </c>
+      <c r="H11" t="s">
+        <v>1</v>
+      </c>
+      <c r="I11" t="s">
+        <v>1</v>
+      </c>
+      <c r="J11" t="s">
+        <v>1</v>
+      </c>
+      <c r="K11" t="s">
+        <v>1</v>
+      </c>
+      <c r="L11" t="s">
+        <v>74</v>
+      </c>
+      <c r="M11" t="s">
+        <v>84</v>
+      </c>
+      <c r="N11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5">
+        <v>45785</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12" s="2">
+        <v>27.46</v>
+      </c>
+      <c r="G12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H12" t="s">
+        <v>1</v>
+      </c>
+      <c r="I12" t="s">
+        <v>1</v>
+      </c>
+      <c r="J12" t="s">
+        <v>1</v>
+      </c>
+      <c r="K12" t="s">
+        <v>1</v>
+      </c>
+      <c r="L12" t="s">
+        <v>74</v>
+      </c>
+      <c r="M12" t="s">
+        <v>83</v>
+      </c>
+      <c r="N12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5">
+        <v>45785</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" s="2">
+        <v>44.32</v>
+      </c>
+      <c r="G13" t="s">
+        <v>1</v>
+      </c>
+      <c r="H13" t="s">
+        <v>1</v>
+      </c>
+      <c r="I13" t="s">
+        <v>1</v>
+      </c>
+      <c r="J13" t="s">
+        <v>1</v>
+      </c>
+      <c r="K13" t="s">
+        <v>1</v>
+      </c>
+      <c r="L13" t="s">
+        <v>74</v>
+      </c>
+      <c r="M13" t="s">
+        <v>84</v>
+      </c>
+      <c r="N13" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5">
+        <v>45789</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" s="2">
+        <v>2</v>
+      </c>
+      <c r="G14" t="s">
+        <v>1</v>
+      </c>
+      <c r="H14" t="s">
+        <v>68</v>
+      </c>
+      <c r="I14" t="s">
+        <v>70</v>
+      </c>
+      <c r="J14" t="s">
+        <v>0</v>
+      </c>
+      <c r="K14" t="s">
+        <v>76</v>
+      </c>
+      <c r="L14" t="s">
+        <v>1</v>
+      </c>
+      <c r="M14" t="s">
+        <v>85</v>
+      </c>
+      <c r="N14" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5">
+        <v>45789</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" s="2">
+        <v>1</v>
+      </c>
+      <c r="G15" t="s">
+        <v>1</v>
+      </c>
+      <c r="H15" t="s">
+        <v>68</v>
+      </c>
+      <c r="I15" t="s">
+        <v>70</v>
+      </c>
+      <c r="J15" t="s">
+        <v>0</v>
+      </c>
+      <c r="K15" t="s">
+        <v>76</v>
+      </c>
+      <c r="L15" t="s">
+        <v>1</v>
+      </c>
+      <c r="M15" t="s">
+        <v>85</v>
+      </c>
+      <c r="N15" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="5">
+        <v>45789</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" t="s">
+        <v>62</v>
+      </c>
+      <c r="F16" s="2">
+        <v>3</v>
+      </c>
+      <c r="G16" t="s">
+        <v>1</v>
+      </c>
+      <c r="H16" t="s">
+        <v>68</v>
+      </c>
+      <c r="I16" t="s">
+        <v>70</v>
+      </c>
+      <c r="J16" t="s">
+        <v>0</v>
+      </c>
+      <c r="K16" t="s">
+        <v>76</v>
+      </c>
+      <c r="L16" t="s">
+        <v>1</v>
+      </c>
+      <c r="M16" t="s">
+        <v>85</v>
+      </c>
+      <c r="N16" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="5">
+        <v>45789</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" t="s">
+        <v>62</v>
+      </c>
+      <c r="F17" s="2">
+        <v>2</v>
+      </c>
+      <c r="G17" t="s">
+        <v>1</v>
+      </c>
+      <c r="H17" t="s">
+        <v>68</v>
+      </c>
+      <c r="I17" t="s">
+        <v>70</v>
+      </c>
+      <c r="J17" t="s">
+        <v>0</v>
+      </c>
+      <c r="K17" t="s">
+        <v>76</v>
+      </c>
+      <c r="L17" t="s">
+        <v>1</v>
+      </c>
+      <c r="M17" t="s">
+        <v>85</v>
+      </c>
+      <c r="N17" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="5">
+        <v>45789</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" t="s">
+        <v>62</v>
+      </c>
+      <c r="F18" s="2">
+        <v>3</v>
+      </c>
+      <c r="G18" t="s">
+        <v>1</v>
+      </c>
+      <c r="H18" t="s">
+        <v>68</v>
+      </c>
+      <c r="I18" t="s">
+        <v>70</v>
+      </c>
+      <c r="J18" t="s">
+        <v>0</v>
+      </c>
+      <c r="K18" t="s">
+        <v>76</v>
+      </c>
+      <c r="L18" t="s">
+        <v>1</v>
+      </c>
+      <c r="M18" t="s">
+        <v>86</v>
+      </c>
+      <c r="N18" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="5">
+        <v>45789</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" t="s">
+        <v>62</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="G19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H19" t="s">
+        <v>68</v>
+      </c>
+      <c r="I19" t="s">
+        <v>70</v>
+      </c>
+      <c r="J19" t="s">
+        <v>0</v>
+      </c>
+      <c r="K19" t="s">
+        <v>76</v>
+      </c>
+      <c r="L19" t="s">
+        <v>1</v>
+      </c>
+      <c r="M19" t="s">
+        <v>7</v>
+      </c>
+      <c r="N19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="5">
+        <v>45789</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" t="s">
+        <v>62</v>
+      </c>
+      <c r="F20" s="2">
+        <v>100</v>
+      </c>
+      <c r="G20" t="s">
+        <v>1</v>
+      </c>
+      <c r="H20" t="s">
+        <v>68</v>
+      </c>
+      <c r="I20" t="s">
+        <v>70</v>
+      </c>
+      <c r="J20" t="s">
+        <v>0</v>
+      </c>
+      <c r="K20" t="s">
+        <v>76</v>
+      </c>
+      <c r="L20" t="s">
+        <v>1</v>
+      </c>
+      <c r="M20" t="s">
+        <v>87</v>
+      </c>
+      <c r="N20" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="5">
+        <v>45789</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" t="s">
+        <v>62</v>
+      </c>
+      <c r="F21" s="2">
+        <v>5</v>
+      </c>
+      <c r="G21" t="s">
+        <v>1</v>
+      </c>
+      <c r="H21" t="s">
+        <v>68</v>
+      </c>
+      <c r="I21" t="s">
+        <v>70</v>
+      </c>
+      <c r="J21" t="s">
+        <v>0</v>
+      </c>
+      <c r="K21" t="s">
+        <v>76</v>
+      </c>
+      <c r="L21" t="s">
+        <v>1</v>
+      </c>
+      <c r="M21" t="s">
+        <v>86</v>
+      </c>
+      <c r="N21" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="5">
+        <v>45789</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" t="s">
+        <v>62</v>
+      </c>
+      <c r="F22" s="2">
+        <v>2</v>
+      </c>
+      <c r="G22" t="s">
+        <v>1</v>
+      </c>
+      <c r="H22" t="s">
+        <v>68</v>
+      </c>
+      <c r="I22" t="s">
+        <v>70</v>
+      </c>
+      <c r="J22" t="s">
+        <v>0</v>
+      </c>
+      <c r="K22" t="s">
+        <v>76</v>
+      </c>
+      <c r="L22" t="s">
+        <v>1</v>
+      </c>
+      <c r="M22" t="s">
+        <v>86</v>
+      </c>
+      <c r="N22" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="5">
+        <v>45789</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" t="s">
+        <v>62</v>
+      </c>
+      <c r="F23" s="2">
+        <v>3</v>
+      </c>
+      <c r="G23" t="s">
+        <v>1</v>
+      </c>
+      <c r="H23" t="s">
+        <v>68</v>
+      </c>
+      <c r="I23" t="s">
+        <v>70</v>
+      </c>
+      <c r="J23" t="s">
+        <v>0</v>
+      </c>
+      <c r="K23" t="s">
+        <v>76</v>
+      </c>
+      <c r="L23" t="s">
+        <v>1</v>
+      </c>
+      <c r="M23" t="s">
+        <v>86</v>
+      </c>
+      <c r="N23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="5">
+        <v>45789</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" t="s">
+        <v>62</v>
+      </c>
+      <c r="F24" s="2">
+        <v>100</v>
+      </c>
+      <c r="G24" t="s">
+        <v>1</v>
+      </c>
+      <c r="H24" t="s">
+        <v>68</v>
+      </c>
+      <c r="I24" t="s">
+        <v>70</v>
+      </c>
+      <c r="J24" t="s">
+        <v>0</v>
+      </c>
+      <c r="K24" t="s">
+        <v>76</v>
+      </c>
+      <c r="L24" t="s">
+        <v>1</v>
+      </c>
+      <c r="M24" t="s">
+        <v>87</v>
+      </c>
+      <c r="N24" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="5">
+        <v>45789</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D25" t="s">
+        <v>62</v>
+      </c>
+      <c r="F25" s="2">
+        <v>3</v>
+      </c>
+      <c r="G25" t="s">
+        <v>1</v>
+      </c>
+      <c r="H25" t="s">
+        <v>68</v>
+      </c>
+      <c r="I25" t="s">
+        <v>70</v>
+      </c>
+      <c r="J25" t="s">
+        <v>0</v>
+      </c>
+      <c r="K25" t="s">
+        <v>76</v>
+      </c>
+      <c r="L25" t="s">
+        <v>1</v>
+      </c>
+      <c r="M25" t="s">
+        <v>85</v>
+      </c>
+      <c r="N25" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="5">
+        <v>45789</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26" t="s">
+        <v>62</v>
+      </c>
+      <c r="F26" s="2">
+        <v>5</v>
+      </c>
+      <c r="G26" t="s">
+        <v>1</v>
+      </c>
+      <c r="H26" t="s">
+        <v>68</v>
+      </c>
+      <c r="I26" t="s">
+        <v>70</v>
+      </c>
+      <c r="J26" t="s">
+        <v>0</v>
+      </c>
+      <c r="K26" t="s">
+        <v>76</v>
+      </c>
+      <c r="L26" t="s">
+        <v>1</v>
+      </c>
+      <c r="M26" t="s">
+        <v>86</v>
+      </c>
+      <c r="N26" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="5">
+        <v>45789</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" t="s">
+        <v>62</v>
+      </c>
+      <c r="F27" s="2">
+        <v>2</v>
+      </c>
+      <c r="G27" t="s">
+        <v>1</v>
+      </c>
+      <c r="H27" t="s">
+        <v>68</v>
+      </c>
+      <c r="I27" t="s">
+        <v>70</v>
+      </c>
+      <c r="J27" t="s">
+        <v>0</v>
+      </c>
+      <c r="K27" t="s">
+        <v>76</v>
+      </c>
+      <c r="L27" t="s">
+        <v>1</v>
+      </c>
+      <c r="M27" t="s">
+        <v>86</v>
+      </c>
+      <c r="N27" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="5">
+        <v>45789</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D28" t="s">
+        <v>62</v>
+      </c>
+      <c r="F28" s="2">
+        <v>5</v>
+      </c>
+      <c r="G28" t="s">
+        <v>1</v>
+      </c>
+      <c r="H28" t="s">
+        <v>68</v>
+      </c>
+      <c r="I28" t="s">
+        <v>70</v>
+      </c>
+      <c r="J28" t="s">
+        <v>0</v>
+      </c>
+      <c r="K28" t="s">
+        <v>76</v>
+      </c>
+      <c r="L28" t="s">
+        <v>1</v>
+      </c>
+      <c r="M28" t="s">
+        <v>88</v>
+      </c>
+      <c r="N28" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="5">
+        <v>45789</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29" t="s">
+        <v>62</v>
+      </c>
+      <c r="F29" s="2">
+        <v>4</v>
+      </c>
+      <c r="G29" t="s">
+        <v>1</v>
+      </c>
+      <c r="H29" t="s">
+        <v>68</v>
+      </c>
+      <c r="I29" t="s">
+        <v>70</v>
+      </c>
+      <c r="J29" t="s">
+        <v>0</v>
+      </c>
+      <c r="K29" t="s">
+        <v>76</v>
+      </c>
+      <c r="L29" t="s">
+        <v>1</v>
+      </c>
+      <c r="M29" t="s">
+        <v>89</v>
+      </c>
+      <c r="N29" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="5">
+        <v>45797</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D30" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="G30" t="s">
+        <v>1</v>
+      </c>
+      <c r="H30" t="s">
+        <v>1</v>
+      </c>
+      <c r="I30" t="s">
+        <v>1</v>
+      </c>
+      <c r="J30" t="s">
+        <v>10</v>
+      </c>
+      <c r="K30" t="s">
+        <v>77</v>
+      </c>
+      <c r="L30" t="s">
+        <v>1</v>
+      </c>
+      <c r="M30" t="s">
+        <v>25</v>
+      </c>
+      <c r="N30" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="5">
+        <v>45797</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D31" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="G31" t="s">
+        <v>1</v>
+      </c>
+      <c r="H31" t="s">
+        <v>1</v>
+      </c>
+      <c r="I31" t="s">
+        <v>1</v>
+      </c>
+      <c r="J31" t="s">
+        <v>10</v>
+      </c>
+      <c r="K31" t="s">
+        <v>78</v>
+      </c>
+      <c r="L31" t="s">
+        <v>1</v>
+      </c>
+      <c r="M31" t="s">
+        <v>3</v>
+      </c>
+      <c r="N31" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" s="5">
         <v>45804</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C32" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D32" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" s="2">
+        <v>60</v>
+      </c>
+      <c r="G32" t="s">
+        <v>1</v>
+      </c>
+      <c r="H32" t="s">
+        <v>68</v>
+      </c>
+      <c r="I32" t="s">
+        <v>12</v>
+      </c>
+      <c r="J32" t="s">
+        <v>9</v>
+      </c>
+      <c r="K32" t="s">
+        <v>79</v>
+      </c>
+      <c r="L32" t="s">
+        <v>1</v>
+      </c>
+      <c r="M32" t="s">
+        <v>7</v>
+      </c>
+      <c r="N32" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" s="5">
+        <v>45804</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D33" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33" s="2">
+        <v>51</v>
+      </c>
+      <c r="G33" t="s">
+        <v>1</v>
+      </c>
+      <c r="H33" t="s">
+        <v>68</v>
+      </c>
+      <c r="I33" t="s">
+        <v>13</v>
+      </c>
+      <c r="J33" t="s">
+        <v>9</v>
+      </c>
+      <c r="K33" t="s">
+        <v>80</v>
+      </c>
+      <c r="L33" t="s">
+        <v>1</v>
+      </c>
+      <c r="M33" t="s">
+        <v>7</v>
+      </c>
+      <c r="N33" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" s="5">
+        <v>45804</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D34" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" s="2">
+        <v>268</v>
+      </c>
+      <c r="G34" t="s">
+        <v>1</v>
+      </c>
+      <c r="H34" t="s">
+        <v>68</v>
+      </c>
+      <c r="I34" t="s">
+        <v>12</v>
+      </c>
+      <c r="J34" t="s">
+        <v>9</v>
+      </c>
+      <c r="K34" t="s">
+        <v>79</v>
+      </c>
+      <c r="L34" t="s">
+        <v>1</v>
+      </c>
+      <c r="M34" t="s">
+        <v>14</v>
+      </c>
+      <c r="N34" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" s="5">
+        <v>45804</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D35" t="s">
+        <v>11</v>
+      </c>
+      <c r="F35" s="2">
+        <v>127.02</v>
+      </c>
+      <c r="G35" t="s">
+        <v>1</v>
+      </c>
+      <c r="H35" t="s">
+        <v>68</v>
+      </c>
+      <c r="I35" t="s">
+        <v>13</v>
+      </c>
+      <c r="J35" t="s">
+        <v>9</v>
+      </c>
+      <c r="K35" t="s">
+        <v>80</v>
+      </c>
+      <c r="L35" t="s">
+        <v>1</v>
+      </c>
+      <c r="M35" t="s">
+        <v>14</v>
+      </c>
+      <c r="N35" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" s="5">
+        <v>45804</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D36" t="s">
+        <v>63</v>
+      </c>
+      <c r="F36" s="2">
+        <v>437</v>
+      </c>
+      <c r="G36" t="s">
+        <v>1</v>
+      </c>
+      <c r="H36" t="s">
+        <v>68</v>
+      </c>
+      <c r="I36" t="s">
+        <v>71</v>
+      </c>
+      <c r="J36" t="s">
+        <v>9</v>
+      </c>
+      <c r="K36" t="s">
+        <v>81</v>
+      </c>
+      <c r="L36" t="s">
+        <v>1</v>
+      </c>
+      <c r="M36" t="s">
+        <v>3</v>
+      </c>
+      <c r="N36" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" s="5">
+        <v>45804</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D37" t="s">
+        <v>63</v>
+      </c>
+      <c r="F37" s="2">
+        <v>395</v>
+      </c>
+      <c r="G37" t="s">
+        <v>1</v>
+      </c>
+      <c r="H37" t="s">
+        <v>68</v>
+      </c>
+      <c r="I37" t="s">
+        <v>71</v>
+      </c>
+      <c r="J37" t="s">
+        <v>9</v>
+      </c>
+      <c r="K37" t="s">
+        <v>81</v>
+      </c>
+      <c r="L37" t="s">
+        <v>1</v>
+      </c>
+      <c r="M37" t="s">
+        <v>25</v>
+      </c>
+      <c r="N37" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" s="5">
+        <v>45804</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D38" t="s">
+        <v>63</v>
+      </c>
+      <c r="F38" s="2">
+        <v>27</v>
+      </c>
+      <c r="G38" t="s">
+        <v>1</v>
+      </c>
+      <c r="H38" t="s">
+        <v>68</v>
+      </c>
+      <c r="I38" t="s">
+        <v>71</v>
+      </c>
+      <c r="J38" t="s">
+        <v>9</v>
+      </c>
+      <c r="K38" t="s">
+        <v>81</v>
+      </c>
+      <c r="L38" t="s">
+        <v>1</v>
+      </c>
+      <c r="M38" t="s">
+        <v>87</v>
+      </c>
+      <c r="N38" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" s="5">
+        <v>45804</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D39" t="s">
+        <v>63</v>
+      </c>
+      <c r="F39" s="2">
+        <v>83</v>
+      </c>
+      <c r="G39" t="s">
+        <v>1</v>
+      </c>
+      <c r="H39" t="s">
+        <v>68</v>
+      </c>
+      <c r="I39" t="s">
+        <v>71</v>
+      </c>
+      <c r="J39" t="s">
+        <v>9</v>
+      </c>
+      <c r="K39" t="s">
+        <v>81</v>
+      </c>
+      <c r="L39" t="s">
+        <v>1</v>
+      </c>
+      <c r="M39" t="s">
+        <v>90</v>
+      </c>
+      <c r="N39" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" s="5">
+        <v>45804</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D40" t="s">
+        <v>64</v>
+      </c>
+      <c r="F40" s="2">
+        <v>187.28</v>
+      </c>
+      <c r="G40" t="s">
+        <v>1</v>
+      </c>
+      <c r="H40" t="s">
+        <v>68</v>
+      </c>
+      <c r="I40" t="s">
+        <v>13</v>
+      </c>
+      <c r="J40" t="s">
+        <v>9</v>
+      </c>
+      <c r="K40" t="s">
+        <v>80</v>
+      </c>
+      <c r="L40" t="s">
+        <v>1</v>
+      </c>
+      <c r="M40" t="s">
+        <v>3</v>
+      </c>
+      <c r="N40" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" s="5">
+        <v>45804</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D41" t="s">
+        <v>64</v>
+      </c>
+      <c r="F41" s="2">
+        <v>332</v>
+      </c>
+      <c r="G41" t="s">
+        <v>1</v>
+      </c>
+      <c r="H41" t="s">
+        <v>68</v>
+      </c>
+      <c r="I41" t="s">
+        <v>13</v>
+      </c>
+      <c r="J41" t="s">
+        <v>9</v>
+      </c>
+      <c r="K41" t="s">
+        <v>80</v>
+      </c>
+      <c r="L41" t="s">
+        <v>1</v>
+      </c>
+      <c r="M41" t="s">
+        <v>25</v>
+      </c>
+      <c r="N41" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A42">
         <v>41</v>
       </c>
-      <c r="D11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="B42" s="5">
+        <v>45804</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D42" t="s">
+        <v>64</v>
+      </c>
+      <c r="F42" s="2">
+        <v>23</v>
+      </c>
+      <c r="G42" t="s">
+        <v>1</v>
+      </c>
+      <c r="H42" t="s">
+        <v>68</v>
+      </c>
+      <c r="I42" t="s">
+        <v>13</v>
+      </c>
+      <c r="J42" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="2">
-        <v>127.02</v>
-      </c>
-      <c r="G11" t="s">
-        <v>1</v>
-      </c>
-      <c r="H11" t="s">
-        <v>31</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="K42" t="s">
+        <v>80</v>
+      </c>
+      <c r="L42" t="s">
+        <v>1</v>
+      </c>
+      <c r="M42" t="s">
+        <v>87</v>
+      </c>
+      <c r="N42" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" s="5">
+        <v>45804</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D43" t="s">
+        <v>64</v>
+      </c>
+      <c r="F43" s="2">
         <v>17</v>
       </c>
-      <c r="J11" t="s">
+      <c r="G43" t="s">
+        <v>1</v>
+      </c>
+      <c r="H43" t="s">
+        <v>68</v>
+      </c>
+      <c r="I43" t="s">
         <v>13</v>
       </c>
-      <c r="K11" t="s">
+      <c r="J43" t="s">
+        <v>9</v>
+      </c>
+      <c r="K43" t="s">
+        <v>80</v>
+      </c>
+      <c r="L43" t="s">
+        <v>1</v>
+      </c>
+      <c r="M43" t="s">
+        <v>90</v>
+      </c>
+      <c r="N43" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" s="5">
+        <v>45804</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D44" t="s">
+        <v>64</v>
+      </c>
+      <c r="F44" s="2">
+        <v>180.72</v>
+      </c>
+      <c r="G44" t="s">
+        <v>1</v>
+      </c>
+      <c r="H44" t="s">
+        <v>68</v>
+      </c>
+      <c r="I44" t="s">
+        <v>13</v>
+      </c>
+      <c r="J44" t="s">
+        <v>9</v>
+      </c>
+      <c r="K44" t="s">
+        <v>80</v>
+      </c>
+      <c r="L44" t="s">
+        <v>1</v>
+      </c>
+      <c r="M44" t="s">
+        <v>25</v>
+      </c>
+      <c r="N44" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" s="5">
+        <v>45810</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D45" t="s">
+        <v>65</v>
+      </c>
+      <c r="F45" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="G45" t="s">
+        <v>1</v>
+      </c>
+      <c r="H45" t="s">
+        <v>68</v>
+      </c>
+      <c r="I45" t="s">
+        <v>1</v>
+      </c>
+      <c r="J45" t="s">
         <v>10</v>
       </c>
-      <c r="L11" t="s">
+      <c r="K45" t="s">
+        <v>76</v>
+      </c>
+      <c r="L45" t="s">
+        <v>1</v>
+      </c>
+      <c r="M45" t="s">
+        <v>25</v>
+      </c>
+      <c r="N45" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" s="5">
+        <v>45810</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D46" t="s">
+        <v>65</v>
+      </c>
+      <c r="F46" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="G46" t="s">
+        <v>1</v>
+      </c>
+      <c r="H46" t="s">
+        <v>68</v>
+      </c>
+      <c r="I46" t="s">
+        <v>1</v>
+      </c>
+      <c r="J46" t="s">
+        <v>10</v>
+      </c>
+      <c r="K46" t="s">
+        <v>76</v>
+      </c>
+      <c r="L46" t="s">
+        <v>1</v>
+      </c>
+      <c r="M46" t="s">
+        <v>25</v>
+      </c>
+      <c r="N46" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" s="5">
+        <v>45810</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D47" t="s">
+        <v>65</v>
+      </c>
+      <c r="F47" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G47" t="s">
+        <v>1</v>
+      </c>
+      <c r="H47" t="s">
+        <v>68</v>
+      </c>
+      <c r="I47" t="s">
+        <v>1</v>
+      </c>
+      <c r="J47" t="s">
+        <v>10</v>
+      </c>
+      <c r="K47" t="s">
+        <v>76</v>
+      </c>
+      <c r="L47" t="s">
+        <v>1</v>
+      </c>
+      <c r="M47" t="s">
+        <v>87</v>
+      </c>
+      <c r="N47" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" s="5">
+        <v>45810</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D48" t="s">
+        <v>66</v>
+      </c>
+      <c r="F48" s="2">
         <v>2</v>
       </c>
-      <c r="M11" t="s">
+      <c r="G48" t="s">
+        <v>1</v>
+      </c>
+      <c r="H48" t="s">
+        <v>68</v>
+      </c>
+      <c r="I48" t="s">
+        <v>1</v>
+      </c>
+      <c r="J48" t="s">
+        <v>0</v>
+      </c>
+      <c r="K48" t="s">
+        <v>1</v>
+      </c>
+      <c r="L48" t="s">
+        <v>1</v>
+      </c>
+      <c r="M48" t="s">
+        <v>86</v>
+      </c>
+      <c r="N48" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" s="5">
+        <v>45810</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D49" t="s">
+        <v>66</v>
+      </c>
+      <c r="F49" s="2">
+        <v>1</v>
+      </c>
+      <c r="G49" t="s">
+        <v>1</v>
+      </c>
+      <c r="H49" t="s">
+        <v>68</v>
+      </c>
+      <c r="I49" t="s">
+        <v>1</v>
+      </c>
+      <c r="J49" t="s">
+        <v>0</v>
+      </c>
+      <c r="K49" t="s">
+        <v>1</v>
+      </c>
+      <c r="L49" t="s">
+        <v>1</v>
+      </c>
+      <c r="M49" t="s">
+        <v>86</v>
+      </c>
+      <c r="N49" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" s="5">
+        <v>45810</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D50" t="s">
+        <v>66</v>
+      </c>
+      <c r="F50" s="2">
+        <v>1</v>
+      </c>
+      <c r="G50" t="s">
+        <v>1</v>
+      </c>
+      <c r="H50" t="s">
+        <v>68</v>
+      </c>
+      <c r="I50" t="s">
+        <v>1</v>
+      </c>
+      <c r="J50" t="s">
+        <v>0</v>
+      </c>
+      <c r="K50" t="s">
+        <v>1</v>
+      </c>
+      <c r="L50" t="s">
+        <v>1</v>
+      </c>
+      <c r="M50" t="s">
+        <v>86</v>
+      </c>
+      <c r="N50" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" s="5">
+        <v>45813</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D51" t="s">
+        <v>59</v>
+      </c>
+      <c r="F51" s="2">
+        <v>60.44</v>
+      </c>
+      <c r="G51" t="s">
+        <v>1</v>
+      </c>
+      <c r="H51" t="s">
+        <v>1</v>
+      </c>
+      <c r="I51" t="s">
+        <v>1</v>
+      </c>
+      <c r="J51" t="s">
+        <v>1</v>
+      </c>
+      <c r="K51" t="s">
+        <v>1</v>
+      </c>
+      <c r="L51" t="s">
+        <v>75</v>
+      </c>
+      <c r="M51" t="s">
+        <v>91</v>
+      </c>
+      <c r="N51" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" s="5">
+        <v>45813</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D52" t="s">
+        <v>59</v>
+      </c>
+      <c r="F52" s="2">
+        <v>7.9</v>
+      </c>
+      <c r="G52" t="s">
+        <v>1</v>
+      </c>
+      <c r="H52" t="s">
+        <v>1</v>
+      </c>
+      <c r="I52" t="s">
+        <v>1</v>
+      </c>
+      <c r="J52" t="s">
+        <v>1</v>
+      </c>
+      <c r="K52" t="s">
+        <v>1</v>
+      </c>
+      <c r="L52" t="s">
+        <v>75</v>
+      </c>
+      <c r="M52" t="s">
+        <v>91</v>
+      </c>
+      <c r="N52" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" s="5">
+        <v>45813</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D53" t="s">
+        <v>59</v>
+      </c>
+      <c r="F53" s="2">
+        <v>1263</v>
+      </c>
+      <c r="G53" t="s">
+        <v>1</v>
+      </c>
+      <c r="H53" t="s">
+        <v>1</v>
+      </c>
+      <c r="I53" t="s">
+        <v>1</v>
+      </c>
+      <c r="J53" t="s">
+        <v>1</v>
+      </c>
+      <c r="K53" t="s">
+        <v>1</v>
+      </c>
+      <c r="L53" t="s">
+        <v>75</v>
+      </c>
+      <c r="M53" t="s">
+        <v>92</v>
+      </c>
+      <c r="N53" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" s="5">
+        <v>45813</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D54" t="s">
+        <v>59</v>
+      </c>
+      <c r="F54" s="2">
+        <v>5</v>
+      </c>
+      <c r="G54" t="s">
+        <v>1</v>
+      </c>
+      <c r="H54" t="s">
+        <v>1</v>
+      </c>
+      <c r="I54" t="s">
+        <v>1</v>
+      </c>
+      <c r="J54" t="s">
+        <v>1</v>
+      </c>
+      <c r="K54" t="s">
+        <v>1</v>
+      </c>
+      <c r="L54" t="s">
+        <v>75</v>
+      </c>
+      <c r="M54" t="s">
+        <v>93</v>
+      </c>
+      <c r="N54" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" s="5">
+        <v>45813</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D55" t="s">
+        <v>59</v>
+      </c>
+      <c r="F55" s="2">
+        <v>2730.9</v>
+      </c>
+      <c r="G55" t="s">
+        <v>1</v>
+      </c>
+      <c r="H55" t="s">
+        <v>1</v>
+      </c>
+      <c r="I55" t="s">
+        <v>1</v>
+      </c>
+      <c r="J55" t="s">
+        <v>1</v>
+      </c>
+      <c r="K55" t="s">
+        <v>1</v>
+      </c>
+      <c r="L55" t="s">
+        <v>75</v>
+      </c>
+      <c r="M55" t="s">
+        <v>94</v>
+      </c>
+      <c r="N55" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" s="5">
+        <v>45813</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D56" t="s">
+        <v>59</v>
+      </c>
+      <c r="F56" s="2">
+        <v>10</v>
+      </c>
+      <c r="G56" t="s">
+        <v>1</v>
+      </c>
+      <c r="H56" t="s">
+        <v>1</v>
+      </c>
+      <c r="I56" t="s">
+        <v>1</v>
+      </c>
+      <c r="J56" t="s">
+        <v>1</v>
+      </c>
+      <c r="K56" t="s">
+        <v>1</v>
+      </c>
+      <c r="L56" t="s">
+        <v>75</v>
+      </c>
+      <c r="M56" t="s">
+        <v>95</v>
+      </c>
+      <c r="N56" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" s="5">
+        <v>45813</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D57" t="s">
+        <v>59</v>
+      </c>
+      <c r="F57" s="2">
+        <v>17</v>
+      </c>
+      <c r="G57" t="s">
+        <v>1</v>
+      </c>
+      <c r="H57" t="s">
+        <v>1</v>
+      </c>
+      <c r="I57" t="s">
+        <v>1</v>
+      </c>
+      <c r="J57" t="s">
+        <v>1</v>
+      </c>
+      <c r="K57" t="s">
+        <v>1</v>
+      </c>
+      <c r="L57" t="s">
+        <v>75</v>
+      </c>
+      <c r="M57" t="s">
+        <v>95</v>
+      </c>
+      <c r="N57" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" s="5">
+        <v>45813</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D58" t="s">
+        <v>59</v>
+      </c>
+      <c r="F58" s="2">
+        <v>141.13999999999999</v>
+      </c>
+      <c r="G58" t="s">
+        <v>1</v>
+      </c>
+      <c r="H58" t="s">
+        <v>1</v>
+      </c>
+      <c r="I58" t="s">
+        <v>1</v>
+      </c>
+      <c r="J58" t="s">
+        <v>1</v>
+      </c>
+      <c r="K58" t="s">
+        <v>1</v>
+      </c>
+      <c r="L58" t="s">
+        <v>75</v>
+      </c>
+      <c r="M58" t="s">
+        <v>96</v>
+      </c>
+      <c r="N58" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" s="5">
+        <v>45813</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D59" t="s">
+        <v>59</v>
+      </c>
+      <c r="F59" s="2">
+        <v>380.05</v>
+      </c>
+      <c r="G59" t="s">
+        <v>1</v>
+      </c>
+      <c r="H59" t="s">
+        <v>1</v>
+      </c>
+      <c r="I59" t="s">
+        <v>1</v>
+      </c>
+      <c r="J59" t="s">
+        <v>1</v>
+      </c>
+      <c r="K59" t="s">
+        <v>1</v>
+      </c>
+      <c r="L59" t="s">
+        <v>75</v>
+      </c>
+      <c r="M59" t="s">
+        <v>96</v>
+      </c>
+      <c r="N59" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" s="5">
+        <v>45813</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D60" t="s">
+        <v>59</v>
+      </c>
+      <c r="F60" s="2">
+        <v>125.5</v>
+      </c>
+      <c r="G60" t="s">
+        <v>1</v>
+      </c>
+      <c r="H60" t="s">
+        <v>1</v>
+      </c>
+      <c r="I60" t="s">
+        <v>1</v>
+      </c>
+      <c r="J60" t="s">
+        <v>1</v>
+      </c>
+      <c r="K60" t="s">
+        <v>1</v>
+      </c>
+      <c r="L60" t="s">
+        <v>75</v>
+      </c>
+      <c r="M60" t="s">
+        <v>96</v>
+      </c>
+      <c r="N60" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" s="5">
+        <v>45813</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D61" t="s">
+        <v>59</v>
+      </c>
+      <c r="F61" s="2">
+        <v>1</v>
+      </c>
+      <c r="G61" t="s">
+        <v>1</v>
+      </c>
+      <c r="H61" t="s">
+        <v>1</v>
+      </c>
+      <c r="I61" t="s">
+        <v>1</v>
+      </c>
+      <c r="J61" t="s">
+        <v>1</v>
+      </c>
+      <c r="K61" t="s">
+        <v>1</v>
+      </c>
+      <c r="L61" t="s">
+        <v>75</v>
+      </c>
+      <c r="M61" t="s">
+        <v>97</v>
+      </c>
+      <c r="N61" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" s="5">
+        <v>45813</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D62" t="s">
+        <v>59</v>
+      </c>
+      <c r="F62" s="2">
+        <v>6</v>
+      </c>
+      <c r="G62" t="s">
+        <v>1</v>
+      </c>
+      <c r="H62" t="s">
+        <v>1</v>
+      </c>
+      <c r="I62" t="s">
+        <v>1</v>
+      </c>
+      <c r="J62" t="s">
+        <v>1</v>
+      </c>
+      <c r="K62" t="s">
+        <v>1</v>
+      </c>
+      <c r="L62" t="s">
+        <v>75</v>
+      </c>
+      <c r="M62" t="s">
+        <v>97</v>
+      </c>
+      <c r="N62" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" s="5">
+        <v>45813</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D63" t="s">
+        <v>59</v>
+      </c>
+      <c r="F63" s="2">
+        <v>7</v>
+      </c>
+      <c r="G63" t="s">
+        <v>1</v>
+      </c>
+      <c r="H63" t="s">
+        <v>1</v>
+      </c>
+      <c r="I63" t="s">
+        <v>1</v>
+      </c>
+      <c r="J63" t="s">
+        <v>1</v>
+      </c>
+      <c r="K63" t="s">
+        <v>1</v>
+      </c>
+      <c r="L63" t="s">
+        <v>75</v>
+      </c>
+      <c r="M63" t="s">
+        <v>97</v>
+      </c>
+      <c r="N63" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" s="5">
+        <v>45813</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D64" t="s">
+        <v>59</v>
+      </c>
+      <c r="F64" s="2">
+        <v>2</v>
+      </c>
+      <c r="G64" t="s">
+        <v>1</v>
+      </c>
+      <c r="H64" t="s">
+        <v>1</v>
+      </c>
+      <c r="I64" t="s">
+        <v>1</v>
+      </c>
+      <c r="J64" t="s">
+        <v>1</v>
+      </c>
+      <c r="K64" t="s">
+        <v>1</v>
+      </c>
+      <c r="L64" t="s">
+        <v>75</v>
+      </c>
+      <c r="M64" t="s">
+        <v>97</v>
+      </c>
+      <c r="N64" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" s="5">
+        <v>45813</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D65" t="s">
+        <v>59</v>
+      </c>
+      <c r="F65" s="2">
+        <v>20</v>
+      </c>
+      <c r="G65" t="s">
+        <v>1</v>
+      </c>
+      <c r="H65" t="s">
+        <v>1</v>
+      </c>
+      <c r="I65" t="s">
+        <v>1</v>
+      </c>
+      <c r="J65" t="s">
+        <v>1</v>
+      </c>
+      <c r="K65" t="s">
+        <v>1</v>
+      </c>
+      <c r="L65" t="s">
+        <v>75</v>
+      </c>
+      <c r="M65" t="s">
+        <v>93</v>
+      </c>
+      <c r="N65" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" s="5">
+        <v>45813</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D66" t="s">
+        <v>59</v>
+      </c>
+      <c r="F66" s="2">
+        <v>3</v>
+      </c>
+      <c r="G66" t="s">
+        <v>1</v>
+      </c>
+      <c r="H66" t="s">
+        <v>1</v>
+      </c>
+      <c r="I66" t="s">
+        <v>1</v>
+      </c>
+      <c r="J66" t="s">
+        <v>1</v>
+      </c>
+      <c r="K66" t="s">
+        <v>1</v>
+      </c>
+      <c r="L66" t="s">
+        <v>75</v>
+      </c>
+      <c r="M66" t="s">
+        <v>93</v>
+      </c>
+      <c r="N66" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" s="5">
+        <v>45813</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D67" t="s">
+        <v>59</v>
+      </c>
+      <c r="F67" s="2">
+        <v>35.1</v>
+      </c>
+      <c r="G67" t="s">
+        <v>1</v>
+      </c>
+      <c r="H67" t="s">
+        <v>1</v>
+      </c>
+      <c r="I67" t="s">
+        <v>1</v>
+      </c>
+      <c r="J67" t="s">
+        <v>1</v>
+      </c>
+      <c r="K67" t="s">
+        <v>1</v>
+      </c>
+      <c r="L67" t="s">
+        <v>75</v>
+      </c>
+      <c r="M67" t="s">
+        <v>98</v>
+      </c>
+      <c r="N67" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" s="5">
+        <v>45813</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D68" t="s">
+        <v>59</v>
+      </c>
+      <c r="F68" s="2">
+        <v>45</v>
+      </c>
+      <c r="G68" t="s">
+        <v>1</v>
+      </c>
+      <c r="H68" t="s">
+        <v>1</v>
+      </c>
+      <c r="I68" t="s">
+        <v>1</v>
+      </c>
+      <c r="J68" t="s">
+        <v>1</v>
+      </c>
+      <c r="K68" t="s">
+        <v>1</v>
+      </c>
+      <c r="L68" t="s">
+        <v>75</v>
+      </c>
+      <c r="M68" t="s">
+        <v>95</v>
+      </c>
+      <c r="N68" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" s="5">
+        <v>45813</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D69" t="s">
+        <v>59</v>
+      </c>
+      <c r="F69" s="2">
+        <v>442</v>
+      </c>
+      <c r="G69" t="s">
+        <v>1</v>
+      </c>
+      <c r="H69" t="s">
+        <v>1</v>
+      </c>
+      <c r="I69" t="s">
+        <v>1</v>
+      </c>
+      <c r="J69" t="s">
+        <v>1</v>
+      </c>
+      <c r="K69" t="s">
+        <v>1</v>
+      </c>
+      <c r="L69" t="s">
+        <v>75</v>
+      </c>
+      <c r="M69" t="s">
+        <v>99</v>
+      </c>
+      <c r="N69" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" s="5">
+        <v>45813</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D70" t="s">
+        <v>59</v>
+      </c>
+      <c r="F70" s="2">
+        <v>370</v>
+      </c>
+      <c r="G70" t="s">
+        <v>1</v>
+      </c>
+      <c r="H70" t="s">
+        <v>1</v>
+      </c>
+      <c r="I70" t="s">
+        <v>1</v>
+      </c>
+      <c r="J70" t="s">
+        <v>1</v>
+      </c>
+      <c r="K70" t="s">
+        <v>1</v>
+      </c>
+      <c r="L70" t="s">
+        <v>75</v>
+      </c>
+      <c r="M70" t="s">
+        <v>99</v>
+      </c>
+      <c r="N70" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" s="5">
+        <v>45813</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D71" t="s">
+        <v>59</v>
+      </c>
+      <c r="F71" s="2">
+        <v>412</v>
+      </c>
+      <c r="G71" t="s">
+        <v>1</v>
+      </c>
+      <c r="H71" t="s">
+        <v>1</v>
+      </c>
+      <c r="I71" t="s">
+        <v>1</v>
+      </c>
+      <c r="J71" t="s">
+        <v>1</v>
+      </c>
+      <c r="K71" t="s">
+        <v>1</v>
+      </c>
+      <c r="L71" t="s">
+        <v>75</v>
+      </c>
+      <c r="M71" t="s">
+        <v>99</v>
+      </c>
+      <c r="N71" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" s="5">
+        <v>45813</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D72" t="s">
+        <v>59</v>
+      </c>
+      <c r="F72" s="2">
+        <v>366</v>
+      </c>
+      <c r="G72" t="s">
+        <v>1</v>
+      </c>
+      <c r="H72" t="s">
+        <v>1</v>
+      </c>
+      <c r="I72" t="s">
+        <v>1</v>
+      </c>
+      <c r="J72" t="s">
+        <v>1</v>
+      </c>
+      <c r="K72" t="s">
+        <v>1</v>
+      </c>
+      <c r="L72" t="s">
+        <v>75</v>
+      </c>
+      <c r="M72" t="s">
+        <v>99</v>
+      </c>
+      <c r="N72" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" s="5">
+        <v>45813</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D73" t="s">
+        <v>59</v>
+      </c>
+      <c r="F73" s="2">
+        <v>323</v>
+      </c>
+      <c r="G73" t="s">
+        <v>1</v>
+      </c>
+      <c r="H73" t="s">
+        <v>1</v>
+      </c>
+      <c r="I73" t="s">
+        <v>1</v>
+      </c>
+      <c r="J73" t="s">
+        <v>1</v>
+      </c>
+      <c r="K73" t="s">
+        <v>1</v>
+      </c>
+      <c r="L73" t="s">
+        <v>75</v>
+      </c>
+      <c r="M73" t="s">
+        <v>99</v>
+      </c>
+      <c r="N73" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" s="5">
+        <v>45813</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D74" t="s">
+        <v>59</v>
+      </c>
+      <c r="F74" s="2">
+        <v>527</v>
+      </c>
+      <c r="G74" t="s">
+        <v>1</v>
+      </c>
+      <c r="H74" t="s">
+        <v>1</v>
+      </c>
+      <c r="I74" t="s">
+        <v>1</v>
+      </c>
+      <c r="J74" t="s">
+        <v>1</v>
+      </c>
+      <c r="K74" t="s">
+        <v>1</v>
+      </c>
+      <c r="L74" t="s">
+        <v>75</v>
+      </c>
+      <c r="M74" t="s">
+        <v>99</v>
+      </c>
+      <c r="N74" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" s="5">
+        <v>45813</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D75" t="s">
+        <v>59</v>
+      </c>
+      <c r="F75" s="2">
+        <v>347</v>
+      </c>
+      <c r="G75" t="s">
+        <v>1</v>
+      </c>
+      <c r="H75" t="s">
+        <v>1</v>
+      </c>
+      <c r="I75" t="s">
+        <v>1</v>
+      </c>
+      <c r="J75" t="s">
+        <v>1</v>
+      </c>
+      <c r="K75" t="s">
+        <v>1</v>
+      </c>
+      <c r="L75" t="s">
+        <v>75</v>
+      </c>
+      <c r="M75" t="s">
+        <v>99</v>
+      </c>
+      <c r="N75" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" s="5">
+        <v>45813</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D76" t="s">
+        <v>59</v>
+      </c>
+      <c r="F76" s="2">
+        <v>451</v>
+      </c>
+      <c r="G76" t="s">
+        <v>1</v>
+      </c>
+      <c r="H76" t="s">
+        <v>1</v>
+      </c>
+      <c r="I76" t="s">
+        <v>1</v>
+      </c>
+      <c r="J76" t="s">
+        <v>1</v>
+      </c>
+      <c r="K76" t="s">
+        <v>1</v>
+      </c>
+      <c r="L76" t="s">
+        <v>75</v>
+      </c>
+      <c r="M76" t="s">
+        <v>99</v>
+      </c>
+      <c r="N76" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" s="5">
+        <v>45813</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D77" t="s">
+        <v>59</v>
+      </c>
+      <c r="F77" s="2">
+        <v>454</v>
+      </c>
+      <c r="G77" t="s">
+        <v>1</v>
+      </c>
+      <c r="H77" t="s">
+        <v>1</v>
+      </c>
+      <c r="I77" t="s">
+        <v>1</v>
+      </c>
+      <c r="J77" t="s">
+        <v>1</v>
+      </c>
+      <c r="K77" t="s">
+        <v>1</v>
+      </c>
+      <c r="L77" t="s">
+        <v>75</v>
+      </c>
+      <c r="M77" t="s">
+        <v>99</v>
+      </c>
+      <c r="N77" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" s="5">
+        <v>45813</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D78" t="s">
+        <v>59</v>
+      </c>
+      <c r="F78" s="2">
+        <v>450</v>
+      </c>
+      <c r="G78" t="s">
+        <v>1</v>
+      </c>
+      <c r="H78" t="s">
+        <v>1</v>
+      </c>
+      <c r="I78" t="s">
+        <v>1</v>
+      </c>
+      <c r="J78" t="s">
+        <v>1</v>
+      </c>
+      <c r="K78" t="s">
+        <v>1</v>
+      </c>
+      <c r="L78" t="s">
+        <v>75</v>
+      </c>
+      <c r="M78" t="s">
+        <v>99</v>
+      </c>
+      <c r="N78" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" s="5">
+        <v>45813</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D79" t="s">
+        <v>59</v>
+      </c>
+      <c r="F79" s="2">
+        <v>398</v>
+      </c>
+      <c r="G79" t="s">
+        <v>1</v>
+      </c>
+      <c r="H79" t="s">
+        <v>1</v>
+      </c>
+      <c r="I79" t="s">
+        <v>1</v>
+      </c>
+      <c r="J79" t="s">
+        <v>1</v>
+      </c>
+      <c r="K79" t="s">
+        <v>1</v>
+      </c>
+      <c r="L79" t="s">
+        <v>75</v>
+      </c>
+      <c r="M79" t="s">
+        <v>99</v>
+      </c>
+      <c r="N79" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" s="5">
+        <v>45813</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D80" t="s">
+        <v>59</v>
+      </c>
+      <c r="F80" s="2">
+        <v>478</v>
+      </c>
+      <c r="G80" t="s">
+        <v>1</v>
+      </c>
+      <c r="H80" t="s">
+        <v>1</v>
+      </c>
+      <c r="I80" t="s">
+        <v>1</v>
+      </c>
+      <c r="J80" t="s">
+        <v>1</v>
+      </c>
+      <c r="K80" t="s">
+        <v>1</v>
+      </c>
+      <c r="L80" t="s">
+        <v>75</v>
+      </c>
+      <c r="M80" t="s">
+        <v>99</v>
+      </c>
+      <c r="N80" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" s="5">
+        <v>45813</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D81" t="s">
+        <v>59</v>
+      </c>
+      <c r="F81" s="2">
+        <v>408</v>
+      </c>
+      <c r="G81" t="s">
+        <v>1</v>
+      </c>
+      <c r="H81" t="s">
+        <v>1</v>
+      </c>
+      <c r="I81" t="s">
+        <v>1</v>
+      </c>
+      <c r="J81" t="s">
+        <v>1</v>
+      </c>
+      <c r="K81" t="s">
+        <v>1</v>
+      </c>
+      <c r="L81" t="s">
+        <v>75</v>
+      </c>
+      <c r="M81" t="s">
+        <v>99</v>
+      </c>
+      <c r="N81" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" s="5">
+        <v>45813</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D82" t="s">
+        <v>59</v>
+      </c>
+      <c r="F82" s="2">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="G82" t="s">
+        <v>1</v>
+      </c>
+      <c r="H82" t="s">
+        <v>1</v>
+      </c>
+      <c r="I82" t="s">
+        <v>1</v>
+      </c>
+      <c r="J82" t="s">
+        <v>1</v>
+      </c>
+      <c r="K82" t="s">
+        <v>1</v>
+      </c>
+      <c r="L82" t="s">
+        <v>75</v>
+      </c>
+      <c r="M82" t="s">
+        <v>100</v>
+      </c>
+      <c r="N82" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" s="5">
+        <v>45813</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D83" t="s">
+        <v>59</v>
+      </c>
+      <c r="F83" s="2">
+        <v>145</v>
+      </c>
+      <c r="G83" t="s">
+        <v>1</v>
+      </c>
+      <c r="H83" t="s">
+        <v>1</v>
+      </c>
+      <c r="I83" t="s">
+        <v>1</v>
+      </c>
+      <c r="J83" t="s">
+        <v>1</v>
+      </c>
+      <c r="K83" t="s">
+        <v>1</v>
+      </c>
+      <c r="L83" t="s">
+        <v>75</v>
+      </c>
+      <c r="M83" t="s">
+        <v>100</v>
+      </c>
+      <c r="N83" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" s="5">
+        <v>45813</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D84" t="s">
+        <v>59</v>
+      </c>
+      <c r="F84" s="2">
+        <v>464</v>
+      </c>
+      <c r="G84" t="s">
+        <v>1</v>
+      </c>
+      <c r="H84" t="s">
+        <v>1</v>
+      </c>
+      <c r="I84" t="s">
+        <v>1</v>
+      </c>
+      <c r="J84" t="s">
+        <v>1</v>
+      </c>
+      <c r="K84" t="s">
+        <v>1</v>
+      </c>
+      <c r="L84" t="s">
+        <v>75</v>
+      </c>
+      <c r="M84" t="s">
+        <v>99</v>
+      </c>
+      <c r="N84" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" s="5">
+        <v>45813</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D85" t="s">
+        <v>59</v>
+      </c>
+      <c r="F85" s="2">
+        <v>412</v>
+      </c>
+      <c r="G85" t="s">
+        <v>1</v>
+      </c>
+      <c r="H85" t="s">
+        <v>1</v>
+      </c>
+      <c r="I85" t="s">
+        <v>1</v>
+      </c>
+      <c r="J85" t="s">
+        <v>1</v>
+      </c>
+      <c r="K85" t="s">
+        <v>1</v>
+      </c>
+      <c r="L85" t="s">
+        <v>75</v>
+      </c>
+      <c r="M85" t="s">
+        <v>99</v>
+      </c>
+      <c r="N85" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" s="5">
+        <v>45813</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D86" t="s">
+        <v>59</v>
+      </c>
+      <c r="F86" s="2">
+        <v>11</v>
+      </c>
+      <c r="G86" t="s">
+        <v>1</v>
+      </c>
+      <c r="H86" t="s">
+        <v>1</v>
+      </c>
+      <c r="I86" t="s">
+        <v>1</v>
+      </c>
+      <c r="J86" t="s">
+        <v>1</v>
+      </c>
+      <c r="K86" t="s">
+        <v>1</v>
+      </c>
+      <c r="L86" t="s">
+        <v>75</v>
+      </c>
+      <c r="M86" t="s">
+        <v>101</v>
+      </c>
+      <c r="N86" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" s="5">
+        <v>45813</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D87" t="s">
+        <v>59</v>
+      </c>
+      <c r="F87" s="2">
+        <v>11</v>
+      </c>
+      <c r="G87" t="s">
+        <v>1</v>
+      </c>
+      <c r="H87" t="s">
+        <v>1</v>
+      </c>
+      <c r="I87" t="s">
+        <v>1</v>
+      </c>
+      <c r="J87" t="s">
+        <v>1</v>
+      </c>
+      <c r="K87" t="s">
+        <v>1</v>
+      </c>
+      <c r="L87" t="s">
+        <v>75</v>
+      </c>
+      <c r="M87" t="s">
+        <v>101</v>
+      </c>
+      <c r="N87" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" s="5">
+        <v>45813</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D88" t="s">
+        <v>59</v>
+      </c>
+      <c r="F88" s="2">
+        <v>23</v>
+      </c>
+      <c r="G88" t="s">
+        <v>1</v>
+      </c>
+      <c r="H88" t="s">
+        <v>1</v>
+      </c>
+      <c r="I88" t="s">
+        <v>1</v>
+      </c>
+      <c r="J88" t="s">
+        <v>1</v>
+      </c>
+      <c r="K88" t="s">
+        <v>1</v>
+      </c>
+      <c r="L88" t="s">
+        <v>75</v>
+      </c>
+      <c r="M88" t="s">
+        <v>102</v>
+      </c>
+      <c r="N88" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" s="5">
+        <v>45813</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D89" t="s">
+        <v>59</v>
+      </c>
+      <c r="F89" s="2">
+        <v>6</v>
+      </c>
+      <c r="G89" t="s">
+        <v>1</v>
+      </c>
+      <c r="H89" t="s">
+        <v>1</v>
+      </c>
+      <c r="I89" t="s">
+        <v>1</v>
+      </c>
+      <c r="J89" t="s">
+        <v>1</v>
+      </c>
+      <c r="K89" t="s">
+        <v>1</v>
+      </c>
+      <c r="L89" t="s">
+        <v>75</v>
+      </c>
+      <c r="M89" t="s">
+        <v>101</v>
+      </c>
+      <c r="N89" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" s="5">
+        <v>45813</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D90" t="s">
+        <v>59</v>
+      </c>
+      <c r="F90" s="2">
+        <v>66</v>
+      </c>
+      <c r="G90" t="s">
+        <v>1</v>
+      </c>
+      <c r="H90" t="s">
+        <v>1</v>
+      </c>
+      <c r="I90" t="s">
+        <v>1</v>
+      </c>
+      <c r="J90" t="s">
+        <v>1</v>
+      </c>
+      <c r="K90" t="s">
+        <v>1</v>
+      </c>
+      <c r="L90" t="s">
+        <v>75</v>
+      </c>
+      <c r="M90" t="s">
+        <v>101</v>
+      </c>
+      <c r="N90" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" s="5">
+        <v>45813</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D91" t="s">
+        <v>59</v>
+      </c>
+      <c r="F91" s="2">
+        <v>1</v>
+      </c>
+      <c r="G91" t="s">
+        <v>1</v>
+      </c>
+      <c r="H91" t="s">
+        <v>1</v>
+      </c>
+      <c r="I91" t="s">
+        <v>1</v>
+      </c>
+      <c r="J91" t="s">
+        <v>1</v>
+      </c>
+      <c r="K91" t="s">
+        <v>1</v>
+      </c>
+      <c r="L91" t="s">
+        <v>75</v>
+      </c>
+      <c r="M91" t="s">
+        <v>101</v>
+      </c>
+      <c r="N91" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" s="5">
+        <v>45813</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D92" t="s">
+        <v>59</v>
+      </c>
+      <c r="F92" s="2">
+        <v>280.2</v>
+      </c>
+      <c r="G92" t="s">
+        <v>1</v>
+      </c>
+      <c r="H92" t="s">
+        <v>1</v>
+      </c>
+      <c r="I92" t="s">
+        <v>1</v>
+      </c>
+      <c r="J92" t="s">
+        <v>1</v>
+      </c>
+      <c r="K92" t="s">
+        <v>1</v>
+      </c>
+      <c r="L92" t="s">
+        <v>75</v>
+      </c>
+      <c r="M92" t="s">
+        <v>103</v>
+      </c>
+      <c r="N92" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" s="5">
+        <v>45813</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D93" t="s">
+        <v>59</v>
+      </c>
+      <c r="F93" s="2">
+        <v>2</v>
+      </c>
+      <c r="G93" t="s">
+        <v>1</v>
+      </c>
+      <c r="H93" t="s">
+        <v>1</v>
+      </c>
+      <c r="I93" t="s">
+        <v>1</v>
+      </c>
+      <c r="J93" t="s">
+        <v>1</v>
+      </c>
+      <c r="K93" t="s">
+        <v>1</v>
+      </c>
+      <c r="L93" t="s">
+        <v>75</v>
+      </c>
+      <c r="M93" t="s">
+        <v>101</v>
+      </c>
+      <c r="N93" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" s="5">
+        <v>45813</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D94" t="s">
+        <v>59</v>
+      </c>
+      <c r="F94" s="2">
+        <v>2</v>
+      </c>
+      <c r="G94" t="s">
+        <v>1</v>
+      </c>
+      <c r="H94" t="s">
+        <v>1</v>
+      </c>
+      <c r="I94" t="s">
+        <v>1</v>
+      </c>
+      <c r="J94" t="s">
+        <v>1</v>
+      </c>
+      <c r="K94" t="s">
+        <v>1</v>
+      </c>
+      <c r="L94" t="s">
+        <v>75</v>
+      </c>
+      <c r="M94" t="s">
+        <v>101</v>
+      </c>
+      <c r="N94" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" s="5">
+        <v>45813</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D95" t="s">
+        <v>59</v>
+      </c>
+      <c r="F95" s="2">
+        <v>2</v>
+      </c>
+      <c r="G95" t="s">
+        <v>1</v>
+      </c>
+      <c r="H95" t="s">
+        <v>1</v>
+      </c>
+      <c r="I95" t="s">
+        <v>1</v>
+      </c>
+      <c r="J95" t="s">
+        <v>1</v>
+      </c>
+      <c r="K95" t="s">
+        <v>1</v>
+      </c>
+      <c r="L95" t="s">
+        <v>75</v>
+      </c>
+      <c r="M95" t="s">
+        <v>101</v>
+      </c>
+      <c r="N95" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" s="5">
+        <v>45813</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D96" t="s">
+        <v>59</v>
+      </c>
+      <c r="F96" s="2">
+        <v>2</v>
+      </c>
+      <c r="G96" t="s">
+        <v>1</v>
+      </c>
+      <c r="H96" t="s">
+        <v>1</v>
+      </c>
+      <c r="I96" t="s">
+        <v>1</v>
+      </c>
+      <c r="J96" t="s">
+        <v>1</v>
+      </c>
+      <c r="K96" t="s">
+        <v>1</v>
+      </c>
+      <c r="L96" t="s">
+        <v>75</v>
+      </c>
+      <c r="M96" t="s">
+        <v>101</v>
+      </c>
+      <c r="N96" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" s="5">
+        <v>45813</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D97" t="s">
+        <v>59</v>
+      </c>
+      <c r="F97" s="2">
+        <v>12</v>
+      </c>
+      <c r="G97" t="s">
+        <v>1</v>
+      </c>
+      <c r="H97" t="s">
+        <v>1</v>
+      </c>
+      <c r="I97" t="s">
+        <v>1</v>
+      </c>
+      <c r="J97" t="s">
+        <v>1</v>
+      </c>
+      <c r="K97" t="s">
+        <v>1</v>
+      </c>
+      <c r="L97" t="s">
+        <v>75</v>
+      </c>
+      <c r="M97" t="s">
+        <v>101</v>
+      </c>
+      <c r="N97" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" s="5">
+        <v>45813</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D98" t="s">
+        <v>59</v>
+      </c>
+      <c r="F98" s="2">
+        <v>10</v>
+      </c>
+      <c r="G98" t="s">
+        <v>1</v>
+      </c>
+      <c r="H98" t="s">
+        <v>1</v>
+      </c>
+      <c r="I98" t="s">
+        <v>1</v>
+      </c>
+      <c r="J98" t="s">
+        <v>1</v>
+      </c>
+      <c r="K98" t="s">
+        <v>1</v>
+      </c>
+      <c r="L98" t="s">
+        <v>75</v>
+      </c>
+      <c r="M98" t="s">
+        <v>101</v>
+      </c>
+      <c r="N98" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" s="5">
+        <v>45813</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D99" t="s">
+        <v>59</v>
+      </c>
+      <c r="F99" s="2">
+        <v>4</v>
+      </c>
+      <c r="G99" t="s">
+        <v>1</v>
+      </c>
+      <c r="H99" t="s">
+        <v>1</v>
+      </c>
+      <c r="I99" t="s">
+        <v>1</v>
+      </c>
+      <c r="J99" t="s">
+        <v>1</v>
+      </c>
+      <c r="K99" t="s">
+        <v>1</v>
+      </c>
+      <c r="L99" t="s">
+        <v>75</v>
+      </c>
+      <c r="M99" t="s">
+        <v>101</v>
+      </c>
+      <c r="N99" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" s="5">
+        <v>45813</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D100" t="s">
+        <v>59</v>
+      </c>
+      <c r="F100" s="2">
+        <v>2</v>
+      </c>
+      <c r="G100" t="s">
+        <v>1</v>
+      </c>
+      <c r="H100" t="s">
+        <v>1</v>
+      </c>
+      <c r="I100" t="s">
+        <v>1</v>
+      </c>
+      <c r="J100" t="s">
+        <v>1</v>
+      </c>
+      <c r="K100" t="s">
+        <v>1</v>
+      </c>
+      <c r="L100" t="s">
+        <v>75</v>
+      </c>
+      <c r="M100" t="s">
+        <v>101</v>
+      </c>
+      <c r="N100" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101" s="5">
+        <v>45813</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D101" t="s">
+        <v>59</v>
+      </c>
+      <c r="F101" s="2">
+        <v>6</v>
+      </c>
+      <c r="G101" t="s">
+        <v>1</v>
+      </c>
+      <c r="H101" t="s">
+        <v>1</v>
+      </c>
+      <c r="I101" t="s">
+        <v>1</v>
+      </c>
+      <c r="J101" t="s">
+        <v>1</v>
+      </c>
+      <c r="K101" t="s">
+        <v>1</v>
+      </c>
+      <c r="L101" t="s">
+        <v>75</v>
+      </c>
+      <c r="M101" t="s">
+        <v>101</v>
+      </c>
+      <c r="N101" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102" s="5">
+        <v>45813</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D102" t="s">
+        <v>59</v>
+      </c>
+      <c r="F102" s="2">
+        <v>4</v>
+      </c>
+      <c r="G102" t="s">
+        <v>1</v>
+      </c>
+      <c r="H102" t="s">
+        <v>1</v>
+      </c>
+      <c r="I102" t="s">
+        <v>1</v>
+      </c>
+      <c r="J102" t="s">
+        <v>1</v>
+      </c>
+      <c r="K102" t="s">
+        <v>1</v>
+      </c>
+      <c r="L102" t="s">
+        <v>75</v>
+      </c>
+      <c r="M102" t="s">
+        <v>100</v>
+      </c>
+      <c r="N102" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103" s="5">
+        <v>45813</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D103" t="s">
+        <v>59</v>
+      </c>
+      <c r="F103" s="2">
+        <v>258</v>
+      </c>
+      <c r="G103" t="s">
+        <v>1</v>
+      </c>
+      <c r="H103" t="s">
+        <v>1</v>
+      </c>
+      <c r="I103" t="s">
+        <v>1</v>
+      </c>
+      <c r="J103" t="s">
+        <v>1</v>
+      </c>
+      <c r="K103" t="s">
+        <v>1</v>
+      </c>
+      <c r="L103" t="s">
+        <v>75</v>
+      </c>
+      <c r="M103" t="s">
+        <v>99</v>
+      </c>
+      <c r="N103" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104" s="5">
+        <v>45813</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D104" t="s">
+        <v>59</v>
+      </c>
+      <c r="F104" s="2">
+        <v>250</v>
+      </c>
+      <c r="G104" t="s">
+        <v>1</v>
+      </c>
+      <c r="H104" t="s">
+        <v>1</v>
+      </c>
+      <c r="I104" t="s">
+        <v>1</v>
+      </c>
+      <c r="J104" t="s">
+        <v>1</v>
+      </c>
+      <c r="K104" t="s">
+        <v>1</v>
+      </c>
+      <c r="L104" t="s">
+        <v>75</v>
+      </c>
+      <c r="M104" t="s">
+        <v>99</v>
+      </c>
+      <c r="N104" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105" s="5">
+        <v>45813</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D105" t="s">
+        <v>59</v>
+      </c>
+      <c r="F105" s="2">
+        <v>169</v>
+      </c>
+      <c r="G105" t="s">
+        <v>1</v>
+      </c>
+      <c r="H105" t="s">
+        <v>1</v>
+      </c>
+      <c r="I105" t="s">
+        <v>1</v>
+      </c>
+      <c r="J105" t="s">
+        <v>1</v>
+      </c>
+      <c r="K105" t="s">
+        <v>1</v>
+      </c>
+      <c r="L105" t="s">
+        <v>75</v>
+      </c>
+      <c r="M105" t="s">
+        <v>99</v>
+      </c>
+      <c r="N105" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106" s="5">
+        <v>45813</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D106" t="s">
+        <v>59</v>
+      </c>
+      <c r="F106" s="2">
+        <v>44</v>
+      </c>
+      <c r="G106" t="s">
+        <v>1</v>
+      </c>
+      <c r="H106" t="s">
+        <v>1</v>
+      </c>
+      <c r="I106" t="s">
+        <v>1</v>
+      </c>
+      <c r="J106" t="s">
+        <v>1</v>
+      </c>
+      <c r="K106" t="s">
+        <v>1</v>
+      </c>
+      <c r="L106" t="s">
+        <v>75</v>
+      </c>
+      <c r="M106" t="s">
+        <v>99</v>
+      </c>
+      <c r="N106" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107" s="5">
+        <v>45813</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D107" t="s">
+        <v>59</v>
+      </c>
+      <c r="F107" s="2">
+        <v>59</v>
+      </c>
+      <c r="G107" t="s">
+        <v>1</v>
+      </c>
+      <c r="H107" t="s">
+        <v>1</v>
+      </c>
+      <c r="I107" t="s">
+        <v>1</v>
+      </c>
+      <c r="J107" t="s">
+        <v>1</v>
+      </c>
+      <c r="K107" t="s">
+        <v>1</v>
+      </c>
+      <c r="L107" t="s">
+        <v>75</v>
+      </c>
+      <c r="M107" t="s">
+        <v>99</v>
+      </c>
+      <c r="N107" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108" s="5">
+        <v>45813</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D108" t="s">
+        <v>59</v>
+      </c>
+      <c r="F108" s="2">
+        <v>14</v>
+      </c>
+      <c r="G108" t="s">
+        <v>1</v>
+      </c>
+      <c r="H108" t="s">
+        <v>1</v>
+      </c>
+      <c r="I108" t="s">
+        <v>1</v>
+      </c>
+      <c r="J108" t="s">
+        <v>1</v>
+      </c>
+      <c r="K108" t="s">
+        <v>1</v>
+      </c>
+      <c r="L108" t="s">
+        <v>75</v>
+      </c>
+      <c r="M108" t="s">
+        <v>99</v>
+      </c>
+      <c r="N108" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109" s="5">
+        <v>45813</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D109" t="s">
+        <v>59</v>
+      </c>
+      <c r="F109" s="2">
+        <v>21</v>
+      </c>
+      <c r="G109" t="s">
+        <v>1</v>
+      </c>
+      <c r="H109" t="s">
+        <v>1</v>
+      </c>
+      <c r="I109" t="s">
+        <v>1</v>
+      </c>
+      <c r="J109" t="s">
+        <v>1</v>
+      </c>
+      <c r="K109" t="s">
+        <v>1</v>
+      </c>
+      <c r="L109" t="s">
+        <v>75</v>
+      </c>
+      <c r="M109" t="s">
+        <v>99</v>
+      </c>
+      <c r="N109" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110" s="5">
+        <v>45813</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D110" t="s">
+        <v>59</v>
+      </c>
+      <c r="F110" s="2">
+        <v>22</v>
+      </c>
+      <c r="G110" t="s">
+        <v>1</v>
+      </c>
+      <c r="H110" t="s">
+        <v>1</v>
+      </c>
+      <c r="I110" t="s">
+        <v>1</v>
+      </c>
+      <c r="J110" t="s">
+        <v>1</v>
+      </c>
+      <c r="K110" t="s">
+        <v>1</v>
+      </c>
+      <c r="L110" t="s">
+        <v>75</v>
+      </c>
+      <c r="M110" t="s">
+        <v>99</v>
+      </c>
+      <c r="N110" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111" s="5">
+        <v>45813</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D111" t="s">
+        <v>59</v>
+      </c>
+      <c r="F111" s="2">
+        <v>452</v>
+      </c>
+      <c r="G111" t="s">
+        <v>1</v>
+      </c>
+      <c r="H111" t="s">
+        <v>1</v>
+      </c>
+      <c r="I111" t="s">
+        <v>1</v>
+      </c>
+      <c r="J111" t="s">
+        <v>1</v>
+      </c>
+      <c r="K111" t="s">
+        <v>1</v>
+      </c>
+      <c r="L111" t="s">
+        <v>75</v>
+      </c>
+      <c r="M111" t="s">
+        <v>99</v>
+      </c>
+      <c r="N111" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112" s="5">
+        <v>45813</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D112" t="s">
+        <v>59</v>
+      </c>
+      <c r="F112" s="2">
+        <v>470</v>
+      </c>
+      <c r="G112" t="s">
+        <v>1</v>
+      </c>
+      <c r="H112" t="s">
+        <v>1</v>
+      </c>
+      <c r="I112" t="s">
+        <v>1</v>
+      </c>
+      <c r="J112" t="s">
+        <v>1</v>
+      </c>
+      <c r="K112" t="s">
+        <v>1</v>
+      </c>
+      <c r="L112" t="s">
+        <v>75</v>
+      </c>
+      <c r="M112" t="s">
+        <v>99</v>
+      </c>
+      <c r="N112" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113" s="5">
+        <v>45813</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D113" t="s">
+        <v>59</v>
+      </c>
+      <c r="F113" s="2">
+        <v>199</v>
+      </c>
+      <c r="G113" t="s">
+        <v>1</v>
+      </c>
+      <c r="H113" t="s">
+        <v>1</v>
+      </c>
+      <c r="I113" t="s">
+        <v>1</v>
+      </c>
+      <c r="J113" t="s">
+        <v>1</v>
+      </c>
+      <c r="K113" t="s">
+        <v>1</v>
+      </c>
+      <c r="L113" t="s">
+        <v>75</v>
+      </c>
+      <c r="M113" t="s">
+        <v>99</v>
+      </c>
+      <c r="N113" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114" s="5">
+        <v>45813</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D114" t="s">
+        <v>59</v>
+      </c>
+      <c r="F114" s="2">
+        <v>66</v>
+      </c>
+      <c r="G114" t="s">
+        <v>1</v>
+      </c>
+      <c r="H114" t="s">
+        <v>1</v>
+      </c>
+      <c r="I114" t="s">
+        <v>1</v>
+      </c>
+      <c r="J114" t="s">
+        <v>1</v>
+      </c>
+      <c r="K114" t="s">
+        <v>1</v>
+      </c>
+      <c r="L114" t="s">
+        <v>75</v>
+      </c>
+      <c r="M114" t="s">
+        <v>99</v>
+      </c>
+      <c r="N114" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115" s="5">
+        <v>45813</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D115" t="s">
+        <v>59</v>
+      </c>
+      <c r="F115" s="2">
+        <v>380</v>
+      </c>
+      <c r="G115" t="s">
+        <v>1</v>
+      </c>
+      <c r="H115" t="s">
+        <v>1</v>
+      </c>
+      <c r="I115" t="s">
+        <v>1</v>
+      </c>
+      <c r="J115" t="s">
+        <v>1</v>
+      </c>
+      <c r="K115" t="s">
+        <v>1</v>
+      </c>
+      <c r="L115" t="s">
+        <v>75</v>
+      </c>
+      <c r="M115" t="s">
+        <v>99</v>
+      </c>
+      <c r="N115" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116" s="5">
+        <v>45813</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D116" t="s">
+        <v>59</v>
+      </c>
+      <c r="F116" s="2">
+        <v>66</v>
+      </c>
+      <c r="G116" t="s">
+        <v>1</v>
+      </c>
+      <c r="H116" t="s">
+        <v>1</v>
+      </c>
+      <c r="I116" t="s">
+        <v>1</v>
+      </c>
+      <c r="J116" t="s">
+        <v>1</v>
+      </c>
+      <c r="K116" t="s">
+        <v>1</v>
+      </c>
+      <c r="L116" t="s">
+        <v>75</v>
+      </c>
+      <c r="M116" t="s">
+        <v>99</v>
+      </c>
+      <c r="N116" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117" s="5">
+        <v>45813</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D117" t="s">
+        <v>59</v>
+      </c>
+      <c r="F117" s="2">
+        <v>78</v>
+      </c>
+      <c r="G117" t="s">
+        <v>1</v>
+      </c>
+      <c r="H117" t="s">
+        <v>1</v>
+      </c>
+      <c r="I117" t="s">
+        <v>1</v>
+      </c>
+      <c r="J117" t="s">
+        <v>1</v>
+      </c>
+      <c r="K117" t="s">
+        <v>1</v>
+      </c>
+      <c r="L117" t="s">
+        <v>75</v>
+      </c>
+      <c r="M117" t="s">
+        <v>99</v>
+      </c>
+      <c r="N117" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118" s="5">
+        <v>45813</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D118" t="s">
+        <v>59</v>
+      </c>
+      <c r="F118" s="2">
+        <v>34</v>
+      </c>
+      <c r="G118" t="s">
+        <v>1</v>
+      </c>
+      <c r="H118" t="s">
+        <v>1</v>
+      </c>
+      <c r="I118" t="s">
+        <v>1</v>
+      </c>
+      <c r="J118" t="s">
+        <v>1</v>
+      </c>
+      <c r="K118" t="s">
+        <v>1</v>
+      </c>
+      <c r="L118" t="s">
+        <v>75</v>
+      </c>
+      <c r="M118" t="s">
+        <v>99</v>
+      </c>
+      <c r="N118" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119" s="5">
+        <v>45813</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D119" t="s">
+        <v>59</v>
+      </c>
+      <c r="F119" s="2">
+        <v>55</v>
+      </c>
+      <c r="G119" t="s">
+        <v>1</v>
+      </c>
+      <c r="H119" t="s">
+        <v>1</v>
+      </c>
+      <c r="I119" t="s">
+        <v>1</v>
+      </c>
+      <c r="J119" t="s">
+        <v>1</v>
+      </c>
+      <c r="K119" t="s">
+        <v>1</v>
+      </c>
+      <c r="L119" t="s">
+        <v>75</v>
+      </c>
+      <c r="M119" t="s">
+        <v>99</v>
+      </c>
+      <c r="N119" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120" s="5">
+        <v>45813</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D120" t="s">
+        <v>59</v>
+      </c>
+      <c r="F120" s="2">
+        <v>393</v>
+      </c>
+      <c r="G120" t="s">
+        <v>1</v>
+      </c>
+      <c r="H120" t="s">
+        <v>1</v>
+      </c>
+      <c r="I120" t="s">
+        <v>1</v>
+      </c>
+      <c r="J120" t="s">
+        <v>1</v>
+      </c>
+      <c r="K120" t="s">
+        <v>1</v>
+      </c>
+      <c r="L120" t="s">
+        <v>75</v>
+      </c>
+      <c r="M120" t="s">
+        <v>99</v>
+      </c>
+      <c r="N120" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121" s="5">
+        <v>45813</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D121" t="s">
+        <v>59</v>
+      </c>
+      <c r="F121" s="2">
+        <v>260</v>
+      </c>
+      <c r="G121" t="s">
+        <v>1</v>
+      </c>
+      <c r="H121" t="s">
+        <v>1</v>
+      </c>
+      <c r="I121" t="s">
+        <v>1</v>
+      </c>
+      <c r="J121" t="s">
+        <v>1</v>
+      </c>
+      <c r="K121" t="s">
+        <v>1</v>
+      </c>
+      <c r="L121" t="s">
+        <v>75</v>
+      </c>
+      <c r="M121" t="s">
+        <v>99</v>
+      </c>
+      <c r="N121" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122" s="5">
+        <v>45813</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D122" t="s">
+        <v>59</v>
+      </c>
+      <c r="F122" s="2">
+        <v>451</v>
+      </c>
+      <c r="G122" t="s">
+        <v>1</v>
+      </c>
+      <c r="H122" t="s">
+        <v>1</v>
+      </c>
+      <c r="I122" t="s">
+        <v>1</v>
+      </c>
+      <c r="J122" t="s">
+        <v>1</v>
+      </c>
+      <c r="K122" t="s">
+        <v>1</v>
+      </c>
+      <c r="L122" t="s">
+        <v>75</v>
+      </c>
+      <c r="M122" t="s">
+        <v>99</v>
+      </c>
+      <c r="N122" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123" s="5">
+        <v>45813</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D123" t="s">
+        <v>59</v>
+      </c>
+      <c r="F123" s="2">
+        <v>395</v>
+      </c>
+      <c r="G123" t="s">
+        <v>1</v>
+      </c>
+      <c r="H123" t="s">
+        <v>1</v>
+      </c>
+      <c r="I123" t="s">
+        <v>1</v>
+      </c>
+      <c r="J123" t="s">
+        <v>1</v>
+      </c>
+      <c r="K123" t="s">
+        <v>1</v>
+      </c>
+      <c r="L123" t="s">
+        <v>75</v>
+      </c>
+      <c r="M123" t="s">
+        <v>99</v>
+      </c>
+      <c r="N123" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124" s="5">
+        <v>45813</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D124" t="s">
+        <v>59</v>
+      </c>
+      <c r="F124" s="2">
+        <v>980</v>
+      </c>
+      <c r="G124" t="s">
+        <v>1</v>
+      </c>
+      <c r="H124" t="s">
+        <v>1</v>
+      </c>
+      <c r="I124" t="s">
+        <v>1</v>
+      </c>
+      <c r="J124" t="s">
+        <v>1</v>
+      </c>
+      <c r="K124" t="s">
+        <v>1</v>
+      </c>
+      <c r="L124" t="s">
+        <v>75</v>
+      </c>
+      <c r="M124" t="s">
+        <v>99</v>
+      </c>
+      <c r="N124" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="B125" s="5">
+        <v>45813</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D125" t="s">
+        <v>59</v>
+      </c>
+      <c r="F125" s="2">
+        <v>440</v>
+      </c>
+      <c r="G125" t="s">
+        <v>1</v>
+      </c>
+      <c r="H125" t="s">
+        <v>1</v>
+      </c>
+      <c r="I125" t="s">
+        <v>1</v>
+      </c>
+      <c r="J125" t="s">
+        <v>1</v>
+      </c>
+      <c r="K125" t="s">
+        <v>1</v>
+      </c>
+      <c r="L125" t="s">
+        <v>75</v>
+      </c>
+      <c r="M125" t="s">
+        <v>99</v>
+      </c>
+      <c r="N125" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="B126" s="5">
+        <v>45813</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D126" t="s">
+        <v>59</v>
+      </c>
+      <c r="F126" s="2">
+        <v>399</v>
+      </c>
+      <c r="G126" t="s">
+        <v>1</v>
+      </c>
+      <c r="H126" t="s">
+        <v>1</v>
+      </c>
+      <c r="I126" t="s">
+        <v>1</v>
+      </c>
+      <c r="J126" t="s">
+        <v>1</v>
+      </c>
+      <c r="K126" t="s">
+        <v>1</v>
+      </c>
+      <c r="L126" t="s">
+        <v>75</v>
+      </c>
+      <c r="M126" t="s">
+        <v>99</v>
+      </c>
+      <c r="N126" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>126</v>
+      </c>
+      <c r="B127" s="5">
+        <v>45813</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D127" t="s">
+        <v>59</v>
+      </c>
+      <c r="F127" s="2">
+        <v>3</v>
+      </c>
+      <c r="G127" t="s">
+        <v>1</v>
+      </c>
+      <c r="H127" t="s">
+        <v>1</v>
+      </c>
+      <c r="I127" t="s">
+        <v>1</v>
+      </c>
+      <c r="J127" t="s">
+        <v>1</v>
+      </c>
+      <c r="K127" t="s">
+        <v>1</v>
+      </c>
+      <c r="L127" t="s">
+        <v>75</v>
+      </c>
+      <c r="M127" t="s">
+        <v>100</v>
+      </c>
+      <c r="N127" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="B128" s="5">
+        <v>45813</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D128" t="s">
+        <v>59</v>
+      </c>
+      <c r="F128" s="2">
+        <v>58.2</v>
+      </c>
+      <c r="G128" t="s">
+        <v>1</v>
+      </c>
+      <c r="H128" t="s">
+        <v>1</v>
+      </c>
+      <c r="I128" t="s">
+        <v>1</v>
+      </c>
+      <c r="J128" t="s">
+        <v>1</v>
+      </c>
+      <c r="K128" t="s">
+        <v>1</v>
+      </c>
+      <c r="L128" t="s">
+        <v>75</v>
+      </c>
+      <c r="M128" t="s">
+        <v>98</v>
+      </c>
+      <c r="N128" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="B129" s="5">
+        <v>45813</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D129" t="s">
+        <v>59</v>
+      </c>
+      <c r="F129" s="2">
+        <v>16.3</v>
+      </c>
+      <c r="G129" t="s">
+        <v>1</v>
+      </c>
+      <c r="H129" t="s">
+        <v>1</v>
+      </c>
+      <c r="I129" t="s">
+        <v>1</v>
+      </c>
+      <c r="J129" t="s">
+        <v>1</v>
+      </c>
+      <c r="K129" t="s">
+        <v>1</v>
+      </c>
+      <c r="L129" t="s">
+        <v>75</v>
+      </c>
+      <c r="M129" t="s">
+        <v>95</v>
+      </c>
+      <c r="N129" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>129</v>
+      </c>
+      <c r="B130" s="5">
+        <v>45813</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D130" t="s">
+        <v>59</v>
+      </c>
+      <c r="F130" s="2">
+        <v>1679</v>
+      </c>
+      <c r="G130" t="s">
+        <v>1</v>
+      </c>
+      <c r="H130" t="s">
+        <v>1</v>
+      </c>
+      <c r="I130" t="s">
+        <v>1</v>
+      </c>
+      <c r="J130" t="s">
+        <v>1</v>
+      </c>
+      <c r="K130" t="s">
+        <v>1</v>
+      </c>
+      <c r="L130" t="s">
+        <v>75</v>
+      </c>
+      <c r="M130" t="s">
+        <v>104</v>
+      </c>
+      <c r="N130" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>130</v>
+      </c>
+      <c r="B131" s="5">
+        <v>45813</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D131" t="s">
+        <v>59</v>
+      </c>
+      <c r="F131" s="2">
+        <v>1342</v>
+      </c>
+      <c r="G131" t="s">
+        <v>1</v>
+      </c>
+      <c r="H131" t="s">
+        <v>1</v>
+      </c>
+      <c r="I131" t="s">
+        <v>1</v>
+      </c>
+      <c r="J131" t="s">
+        <v>1</v>
+      </c>
+      <c r="K131" t="s">
+        <v>1</v>
+      </c>
+      <c r="L131" t="s">
+        <v>75</v>
+      </c>
+      <c r="M131" t="s">
+        <v>105</v>
+      </c>
+      <c r="N131" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>131</v>
+      </c>
+      <c r="B132" s="5">
+        <v>45813</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D132" t="s">
+        <v>59</v>
+      </c>
+      <c r="F132" s="2">
+        <v>83</v>
+      </c>
+      <c r="G132" t="s">
+        <v>1</v>
+      </c>
+      <c r="H132" t="s">
+        <v>1</v>
+      </c>
+      <c r="I132" t="s">
+        <v>1</v>
+      </c>
+      <c r="J132" t="s">
+        <v>1</v>
+      </c>
+      <c r="K132" t="s">
+        <v>1</v>
+      </c>
+      <c r="L132" t="s">
+        <v>75</v>
+      </c>
+      <c r="M132" t="s">
+        <v>106</v>
+      </c>
+      <c r="N132" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>132</v>
+      </c>
+      <c r="B133" s="5">
+        <v>45813</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D133" t="s">
+        <v>59</v>
+      </c>
+      <c r="F133" s="2">
+        <v>46</v>
+      </c>
+      <c r="G133" t="s">
+        <v>1</v>
+      </c>
+      <c r="H133" t="s">
+        <v>1</v>
+      </c>
+      <c r="I133" t="s">
+        <v>1</v>
+      </c>
+      <c r="J133" t="s">
+        <v>1</v>
+      </c>
+      <c r="K133" t="s">
+        <v>1</v>
+      </c>
+      <c r="L133" t="s">
+        <v>75</v>
+      </c>
+      <c r="M133" t="s">
+        <v>99</v>
+      </c>
+      <c r="N133" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>133</v>
+      </c>
+      <c r="B134" s="5">
+        <v>45813</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D134" t="s">
+        <v>59</v>
+      </c>
+      <c r="F134" s="2">
+        <v>87</v>
+      </c>
+      <c r="G134" t="s">
+        <v>1</v>
+      </c>
+      <c r="H134" t="s">
+        <v>1</v>
+      </c>
+      <c r="I134" t="s">
+        <v>1</v>
+      </c>
+      <c r="J134" t="s">
+        <v>1</v>
+      </c>
+      <c r="K134" t="s">
+        <v>1</v>
+      </c>
+      <c r="L134" t="s">
+        <v>75</v>
+      </c>
+      <c r="M134" t="s">
+        <v>99</v>
+      </c>
+      <c r="N134" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>134</v>
+      </c>
+      <c r="B135" s="5">
+        <v>45813</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D135" t="s">
+        <v>59</v>
+      </c>
+      <c r="F135" s="2">
+        <v>26</v>
+      </c>
+      <c r="G135" t="s">
+        <v>1</v>
+      </c>
+      <c r="H135" t="s">
+        <v>1</v>
+      </c>
+      <c r="I135" t="s">
+        <v>1</v>
+      </c>
+      <c r="J135" t="s">
+        <v>1</v>
+      </c>
+      <c r="K135" t="s">
+        <v>1</v>
+      </c>
+      <c r="L135" t="s">
+        <v>75</v>
+      </c>
+      <c r="M135" t="s">
+        <v>99</v>
+      </c>
+      <c r="N135" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>135</v>
+      </c>
+      <c r="B136" s="5">
+        <v>45813</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D136" t="s">
+        <v>59</v>
+      </c>
+      <c r="F136" s="2">
         <v>18</v>
       </c>
-      <c r="N11" t="s">
-        <v>38</v>
+      <c r="G136" t="s">
+        <v>1</v>
+      </c>
+      <c r="H136" t="s">
+        <v>1</v>
+      </c>
+      <c r="I136" t="s">
+        <v>1</v>
+      </c>
+      <c r="J136" t="s">
+        <v>1</v>
+      </c>
+      <c r="K136" t="s">
+        <v>1</v>
+      </c>
+      <c r="L136" t="s">
+        <v>75</v>
+      </c>
+      <c r="M136" t="s">
+        <v>99</v>
+      </c>
+      <c r="N136" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>136</v>
+      </c>
+      <c r="B137" s="5">
+        <v>45813</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D137" t="s">
+        <v>59</v>
+      </c>
+      <c r="F137" s="2">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="G137" t="s">
+        <v>1</v>
+      </c>
+      <c r="H137" t="s">
+        <v>1</v>
+      </c>
+      <c r="I137" t="s">
+        <v>1</v>
+      </c>
+      <c r="J137" t="s">
+        <v>1</v>
+      </c>
+      <c r="K137" t="s">
+        <v>1</v>
+      </c>
+      <c r="L137" t="s">
+        <v>75</v>
+      </c>
+      <c r="M137" t="s">
+        <v>98</v>
+      </c>
+      <c r="N137" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>137</v>
+      </c>
+      <c r="B138" s="5">
+        <v>45813</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D138" t="s">
+        <v>59</v>
+      </c>
+      <c r="F138" s="2">
+        <v>8</v>
+      </c>
+      <c r="G138" t="s">
+        <v>1</v>
+      </c>
+      <c r="H138" t="s">
+        <v>1</v>
+      </c>
+      <c r="I138" t="s">
+        <v>1</v>
+      </c>
+      <c r="J138" t="s">
+        <v>1</v>
+      </c>
+      <c r="K138" t="s">
+        <v>1</v>
+      </c>
+      <c r="L138" t="s">
+        <v>75</v>
+      </c>
+      <c r="M138" t="s">
+        <v>100</v>
+      </c>
+      <c r="N138" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>138</v>
+      </c>
+      <c r="B139" s="5">
+        <v>45813</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D139" t="s">
+        <v>59</v>
+      </c>
+      <c r="F139" s="2">
+        <v>8</v>
+      </c>
+      <c r="G139" t="s">
+        <v>1</v>
+      </c>
+      <c r="H139" t="s">
+        <v>1</v>
+      </c>
+      <c r="I139" t="s">
+        <v>1</v>
+      </c>
+      <c r="J139" t="s">
+        <v>1</v>
+      </c>
+      <c r="K139" t="s">
+        <v>1</v>
+      </c>
+      <c r="L139" t="s">
+        <v>75</v>
+      </c>
+      <c r="M139" t="s">
+        <v>100</v>
+      </c>
+      <c r="N139" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>139</v>
+      </c>
+      <c r="B140" s="5">
+        <v>45813</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D140" t="s">
+        <v>59</v>
+      </c>
+      <c r="F140" s="2">
+        <v>3</v>
+      </c>
+      <c r="G140" t="s">
+        <v>1</v>
+      </c>
+      <c r="H140" t="s">
+        <v>1</v>
+      </c>
+      <c r="I140" t="s">
+        <v>1</v>
+      </c>
+      <c r="J140" t="s">
+        <v>1</v>
+      </c>
+      <c r="K140" t="s">
+        <v>1</v>
+      </c>
+      <c r="L140" t="s">
+        <v>75</v>
+      </c>
+      <c r="M140" t="s">
+        <v>100</v>
+      </c>
+      <c r="N140" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>140</v>
+      </c>
+      <c r="B141" s="5">
+        <v>45813</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D141" t="s">
+        <v>59</v>
+      </c>
+      <c r="F141" s="2">
+        <v>4</v>
+      </c>
+      <c r="G141" t="s">
+        <v>1</v>
+      </c>
+      <c r="H141" t="s">
+        <v>1</v>
+      </c>
+      <c r="I141" t="s">
+        <v>1</v>
+      </c>
+      <c r="J141" t="s">
+        <v>1</v>
+      </c>
+      <c r="K141" t="s">
+        <v>1</v>
+      </c>
+      <c r="L141" t="s">
+        <v>75</v>
+      </c>
+      <c r="M141" t="s">
+        <v>100</v>
+      </c>
+      <c r="N141" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>141</v>
+      </c>
+      <c r="B142" s="5">
+        <v>45813</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D142" t="s">
+        <v>59</v>
+      </c>
+      <c r="F142" s="2">
+        <v>3</v>
+      </c>
+      <c r="G142" t="s">
+        <v>1</v>
+      </c>
+      <c r="H142" t="s">
+        <v>1</v>
+      </c>
+      <c r="I142" t="s">
+        <v>1</v>
+      </c>
+      <c r="J142" t="s">
+        <v>1</v>
+      </c>
+      <c r="K142" t="s">
+        <v>1</v>
+      </c>
+      <c r="L142" t="s">
+        <v>75</v>
+      </c>
+      <c r="M142" t="s">
+        <v>100</v>
+      </c>
+      <c r="N142" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>142</v>
+      </c>
+      <c r="B143" s="5">
+        <v>45813</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D143" t="s">
+        <v>59</v>
+      </c>
+      <c r="F143" s="2">
+        <v>11</v>
+      </c>
+      <c r="G143" t="s">
+        <v>1</v>
+      </c>
+      <c r="H143" t="s">
+        <v>1</v>
+      </c>
+      <c r="I143" t="s">
+        <v>1</v>
+      </c>
+      <c r="J143" t="s">
+        <v>1</v>
+      </c>
+      <c r="K143" t="s">
+        <v>1</v>
+      </c>
+      <c r="L143" t="s">
+        <v>75</v>
+      </c>
+      <c r="M143" t="s">
+        <v>100</v>
+      </c>
+      <c r="N143" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>143</v>
+      </c>
+      <c r="B144" s="5">
+        <v>45813</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D144" t="s">
+        <v>59</v>
+      </c>
+      <c r="F144" s="2">
+        <v>9</v>
+      </c>
+      <c r="G144" t="s">
+        <v>1</v>
+      </c>
+      <c r="H144" t="s">
+        <v>1</v>
+      </c>
+      <c r="I144" t="s">
+        <v>1</v>
+      </c>
+      <c r="J144" t="s">
+        <v>1</v>
+      </c>
+      <c r="K144" t="s">
+        <v>1</v>
+      </c>
+      <c r="L144" t="s">
+        <v>75</v>
+      </c>
+      <c r="M144" t="s">
+        <v>100</v>
+      </c>
+      <c r="N144" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>144</v>
+      </c>
+      <c r="B145" s="5">
+        <v>45813</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D145" t="s">
+        <v>59</v>
+      </c>
+      <c r="F145" s="2">
+        <v>4</v>
+      </c>
+      <c r="H145" t="s">
+        <v>1</v>
+      </c>
+      <c r="I145" t="s">
+        <v>1</v>
+      </c>
+      <c r="J145" t="s">
+        <v>1</v>
+      </c>
+      <c r="K145" t="s">
+        <v>1</v>
+      </c>
+      <c r="L145" t="s">
+        <v>75</v>
+      </c>
+      <c r="M145" t="s">
+        <v>100</v>
+      </c>
+      <c r="N145" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>145</v>
+      </c>
+      <c r="B146" s="5">
+        <v>45813</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D146" t="s">
+        <v>59</v>
+      </c>
+      <c r="F146" s="2">
+        <v>3</v>
+      </c>
+      <c r="H146" t="s">
+        <v>1</v>
+      </c>
+      <c r="I146" t="s">
+        <v>1</v>
+      </c>
+      <c r="J146" t="s">
+        <v>1</v>
+      </c>
+      <c r="K146" t="s">
+        <v>1</v>
+      </c>
+      <c r="L146" t="s">
+        <v>75</v>
+      </c>
+      <c r="M146" t="s">
+        <v>100</v>
+      </c>
+      <c r="N146" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <v>146</v>
+      </c>
+      <c r="B147" s="5">
+        <v>45813</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D147" t="s">
+        <v>59</v>
+      </c>
+      <c r="F147" s="2">
+        <v>9</v>
+      </c>
+      <c r="H147" t="s">
+        <v>1</v>
+      </c>
+      <c r="I147" t="s">
+        <v>1</v>
+      </c>
+      <c r="J147" t="s">
+        <v>1</v>
+      </c>
+      <c r="K147" t="s">
+        <v>1</v>
+      </c>
+      <c r="L147" t="s">
+        <v>75</v>
+      </c>
+      <c r="M147" t="s">
+        <v>100</v>
+      </c>
+      <c r="N147" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>147</v>
+      </c>
+      <c r="B148" s="5">
+        <v>45813</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D148" t="s">
+        <v>59</v>
+      </c>
+      <c r="F148" s="2">
+        <v>10</v>
+      </c>
+      <c r="H148" t="s">
+        <v>1</v>
+      </c>
+      <c r="I148" t="s">
+        <v>1</v>
+      </c>
+      <c r="J148" t="s">
+        <v>1</v>
+      </c>
+      <c r="K148" t="s">
+        <v>1</v>
+      </c>
+      <c r="L148" t="s">
+        <v>75</v>
+      </c>
+      <c r="M148" t="s">
+        <v>100</v>
+      </c>
+      <c r="N148" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>148</v>
+      </c>
+      <c r="B149" s="5">
+        <v>45813</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D149" t="s">
+        <v>59</v>
+      </c>
+      <c r="F149" s="2">
+        <v>2</v>
+      </c>
+      <c r="H149" t="s">
+        <v>1</v>
+      </c>
+      <c r="I149" t="s">
+        <v>1</v>
+      </c>
+      <c r="J149" t="s">
+        <v>1</v>
+      </c>
+      <c r="K149" t="s">
+        <v>1</v>
+      </c>
+      <c r="L149" t="s">
+        <v>75</v>
+      </c>
+      <c r="M149" t="s">
+        <v>100</v>
+      </c>
+      <c r="N149" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="150" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <v>149</v>
+      </c>
+      <c r="B150" s="5">
+        <v>45813</v>
+      </c>
+      <c r="C150" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D150" t="s">
+        <v>59</v>
+      </c>
+      <c r="F150" s="2">
+        <v>2</v>
+      </c>
+      <c r="H150" t="s">
+        <v>1</v>
+      </c>
+      <c r="I150" t="s">
+        <v>1</v>
+      </c>
+      <c r="J150" t="s">
+        <v>1</v>
+      </c>
+      <c r="K150" t="s">
+        <v>1</v>
+      </c>
+      <c r="L150" t="s">
+        <v>75</v>
+      </c>
+      <c r="M150" t="s">
+        <v>100</v>
+      </c>
+      <c r="N150" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="151" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <v>150</v>
+      </c>
+      <c r="B151" s="5">
+        <v>45813</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D151" t="s">
+        <v>59</v>
+      </c>
+      <c r="F151" s="2">
+        <v>2</v>
+      </c>
+      <c r="H151" t="s">
+        <v>1</v>
+      </c>
+      <c r="I151" t="s">
+        <v>1</v>
+      </c>
+      <c r="J151" t="s">
+        <v>1</v>
+      </c>
+      <c r="K151" t="s">
+        <v>1</v>
+      </c>
+      <c r="L151" t="s">
+        <v>75</v>
+      </c>
+      <c r="M151" t="s">
+        <v>100</v>
+      </c>
+      <c r="N151" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="152" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <v>151</v>
+      </c>
+      <c r="B152" s="5">
+        <v>45813</v>
+      </c>
+      <c r="C152" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D152" t="s">
+        <v>59</v>
+      </c>
+      <c r="F152" s="2">
+        <v>2</v>
+      </c>
+      <c r="H152" t="s">
+        <v>1</v>
+      </c>
+      <c r="I152" t="s">
+        <v>1</v>
+      </c>
+      <c r="J152" t="s">
+        <v>1</v>
+      </c>
+      <c r="K152" t="s">
+        <v>1</v>
+      </c>
+      <c r="L152" t="s">
+        <v>75</v>
+      </c>
+      <c r="M152" t="s">
+        <v>100</v>
+      </c>
+      <c r="N152" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <v>152</v>
+      </c>
+      <c r="B153" s="5">
+        <v>45813</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D153" t="s">
+        <v>59</v>
+      </c>
+      <c r="F153" s="2">
+        <v>2</v>
+      </c>
+      <c r="H153" t="s">
+        <v>1</v>
+      </c>
+      <c r="I153" t="s">
+        <v>1</v>
+      </c>
+      <c r="J153" t="s">
+        <v>1</v>
+      </c>
+      <c r="K153" t="s">
+        <v>1</v>
+      </c>
+      <c r="L153" t="s">
+        <v>75</v>
+      </c>
+      <c r="M153" t="s">
+        <v>100</v>
+      </c>
+      <c r="N153" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="154" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <v>153</v>
+      </c>
+      <c r="B154" s="5">
+        <v>45813</v>
+      </c>
+      <c r="C154" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D154" t="s">
+        <v>59</v>
+      </c>
+      <c r="F154" s="2">
+        <v>169.2</v>
+      </c>
+      <c r="H154" t="s">
+        <v>1</v>
+      </c>
+      <c r="I154" t="s">
+        <v>1</v>
+      </c>
+      <c r="J154" t="s">
+        <v>1</v>
+      </c>
+      <c r="K154" t="s">
+        <v>1</v>
+      </c>
+      <c r="L154" t="s">
+        <v>75</v>
+      </c>
+      <c r="M154" t="s">
+        <v>103</v>
+      </c>
+      <c r="N154" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="155" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <v>154</v>
+      </c>
+      <c r="B155" s="5">
+        <v>45813</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D155" t="s">
+        <v>59</v>
+      </c>
+      <c r="F155" s="2">
+        <v>0.99</v>
+      </c>
+      <c r="H155" t="s">
+        <v>1</v>
+      </c>
+      <c r="I155" t="s">
+        <v>1</v>
+      </c>
+      <c r="J155" t="s">
+        <v>1</v>
+      </c>
+      <c r="K155" t="s">
+        <v>1</v>
+      </c>
+      <c r="L155" t="s">
+        <v>75</v>
+      </c>
+      <c r="M155" t="s">
+        <v>107</v>
+      </c>
+      <c r="N155" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="156" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <v>155</v>
+      </c>
+      <c r="B156" s="5">
+        <v>45813</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D156" t="s">
+        <v>59</v>
+      </c>
+      <c r="F156" s="2">
+        <v>393.9</v>
+      </c>
+      <c r="H156" t="s">
+        <v>1</v>
+      </c>
+      <c r="I156" t="s">
+        <v>1</v>
+      </c>
+      <c r="J156" t="s">
+        <v>1</v>
+      </c>
+      <c r="K156" t="s">
+        <v>1</v>
+      </c>
+      <c r="L156" t="s">
+        <v>75</v>
+      </c>
+      <c r="M156" t="s">
+        <v>108</v>
+      </c>
+      <c r="N156" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="157" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <v>156</v>
+      </c>
+      <c r="B157" s="5">
+        <v>45813</v>
+      </c>
+      <c r="C157" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D157" t="s">
+        <v>59</v>
+      </c>
+      <c r="F157" s="2">
+        <v>165.09</v>
+      </c>
+      <c r="H157" t="s">
+        <v>1</v>
+      </c>
+      <c r="I157" t="s">
+        <v>1</v>
+      </c>
+      <c r="J157" t="s">
+        <v>1</v>
+      </c>
+      <c r="K157" t="s">
+        <v>1</v>
+      </c>
+      <c r="L157" t="s">
+        <v>75</v>
+      </c>
+      <c r="M157" t="s">
+        <v>109</v>
+      </c>
+      <c r="N157" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="158" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <v>157</v>
+      </c>
+      <c r="B158" s="5">
+        <v>45813</v>
+      </c>
+      <c r="C158" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D158" t="s">
+        <v>59</v>
+      </c>
+      <c r="F158" s="2">
+        <v>86.75</v>
+      </c>
+      <c r="H158" t="s">
+        <v>1</v>
+      </c>
+      <c r="I158" t="s">
+        <v>1</v>
+      </c>
+      <c r="J158" t="s">
+        <v>1</v>
+      </c>
+      <c r="K158" t="s">
+        <v>1</v>
+      </c>
+      <c r="L158" t="s">
+        <v>75</v>
+      </c>
+      <c r="M158" t="s">
+        <v>109</v>
+      </c>
+      <c r="N158" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="159" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <v>158</v>
+      </c>
+      <c r="B159" s="5">
+        <v>45813</v>
+      </c>
+      <c r="C159" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D159" t="s">
+        <v>59</v>
+      </c>
+      <c r="F159" s="2">
+        <v>2118.1799999999998</v>
+      </c>
+      <c r="H159" t="s">
+        <v>1</v>
+      </c>
+      <c r="I159" t="s">
+        <v>1</v>
+      </c>
+      <c r="J159" t="s">
+        <v>1</v>
+      </c>
+      <c r="K159" t="s">
+        <v>1</v>
+      </c>
+      <c r="L159" t="s">
+        <v>75</v>
+      </c>
+      <c r="M159" t="s">
+        <v>110</v>
+      </c>
+      <c r="N159" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="160" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <v>159</v>
+      </c>
+      <c r="B160" s="5">
+        <v>45813</v>
+      </c>
+      <c r="C160" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D160" t="s">
+        <v>59</v>
+      </c>
+      <c r="F160" s="2">
+        <v>3</v>
+      </c>
+      <c r="H160" t="s">
+        <v>1</v>
+      </c>
+      <c r="I160" t="s">
+        <v>1</v>
+      </c>
+      <c r="J160" t="s">
+        <v>1</v>
+      </c>
+      <c r="K160" t="s">
+        <v>1</v>
+      </c>
+      <c r="L160" t="s">
+        <v>75</v>
+      </c>
+      <c r="M160" t="s">
+        <v>101</v>
+      </c>
+      <c r="N160" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="161" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <v>160</v>
+      </c>
+      <c r="B161" s="5">
+        <v>45813</v>
+      </c>
+      <c r="C161" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D161" t="s">
+        <v>59</v>
+      </c>
+      <c r="F161" s="2">
+        <v>37.6</v>
+      </c>
+      <c r="H161" t="s">
+        <v>1</v>
+      </c>
+      <c r="I161" t="s">
+        <v>1</v>
+      </c>
+      <c r="J161" t="s">
+        <v>1</v>
+      </c>
+      <c r="K161" t="s">
+        <v>1</v>
+      </c>
+      <c r="L161" t="s">
+        <v>75</v>
+      </c>
+      <c r="M161" t="s">
+        <v>111</v>
+      </c>
+      <c r="N161" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="162" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <v>161</v>
+      </c>
+      <c r="B162" s="5">
+        <v>45813</v>
+      </c>
+      <c r="C162" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D162" t="s">
+        <v>59</v>
+      </c>
+      <c r="F162" s="2">
+        <v>87</v>
+      </c>
+      <c r="H162" t="s">
+        <v>1</v>
+      </c>
+      <c r="I162" t="s">
+        <v>1</v>
+      </c>
+      <c r="J162" t="s">
+        <v>1</v>
+      </c>
+      <c r="K162" t="s">
+        <v>1</v>
+      </c>
+      <c r="L162" t="s">
+        <v>75</v>
+      </c>
+      <c r="M162" t="s">
+        <v>112</v>
+      </c>
+      <c r="N162" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="163" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A163">
+        <v>162</v>
+      </c>
+      <c r="B163" s="5">
+        <v>45813</v>
+      </c>
+      <c r="C163" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D163" t="s">
+        <v>59</v>
+      </c>
+      <c r="F163" s="2">
+        <v>5</v>
+      </c>
+      <c r="H163" t="s">
+        <v>1</v>
+      </c>
+      <c r="I163" t="s">
+        <v>1</v>
+      </c>
+      <c r="J163" t="s">
+        <v>1</v>
+      </c>
+      <c r="K163" t="s">
+        <v>1</v>
+      </c>
+      <c r="L163" t="s">
+        <v>75</v>
+      </c>
+      <c r="M163" t="s">
+        <v>113</v>
+      </c>
+      <c r="N163" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="164" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <v>163</v>
+      </c>
+      <c r="B164" s="5">
+        <v>45813</v>
+      </c>
+      <c r="C164" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D164" t="s">
+        <v>59</v>
+      </c>
+      <c r="F164" s="2">
+        <v>19</v>
+      </c>
+      <c r="H164" t="s">
+        <v>1</v>
+      </c>
+      <c r="I164" t="s">
+        <v>1</v>
+      </c>
+      <c r="J164" t="s">
+        <v>1</v>
+      </c>
+      <c r="K164" t="s">
+        <v>1</v>
+      </c>
+      <c r="L164" t="s">
+        <v>75</v>
+      </c>
+      <c r="M164" t="s">
+        <v>114</v>
+      </c>
+      <c r="N164" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="165" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A165">
+        <v>164</v>
+      </c>
+      <c r="B165" s="5">
+        <v>45813</v>
+      </c>
+      <c r="C165" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D165" t="s">
+        <v>59</v>
+      </c>
+      <c r="F165" s="2">
+        <v>191.63</v>
+      </c>
+      <c r="H165" t="s">
+        <v>1</v>
+      </c>
+      <c r="I165" t="s">
+        <v>1</v>
+      </c>
+      <c r="J165" t="s">
+        <v>1</v>
+      </c>
+      <c r="K165" t="s">
+        <v>1</v>
+      </c>
+      <c r="L165" t="s">
+        <v>75</v>
+      </c>
+      <c r="M165" t="s">
+        <v>115</v>
+      </c>
+      <c r="N165" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="166" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A166">
+        <v>165</v>
+      </c>
+      <c r="B166" s="5">
+        <v>45813</v>
+      </c>
+      <c r="C166" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D166" t="s">
+        <v>59</v>
+      </c>
+      <c r="F166" s="2">
+        <v>427.72</v>
+      </c>
+      <c r="H166" t="s">
+        <v>1</v>
+      </c>
+      <c r="I166" t="s">
+        <v>1</v>
+      </c>
+      <c r="J166" t="s">
+        <v>1</v>
+      </c>
+      <c r="K166" t="s">
+        <v>1</v>
+      </c>
+      <c r="L166" t="s">
+        <v>75</v>
+      </c>
+      <c r="M166" t="s">
+        <v>116</v>
+      </c>
+      <c r="N166" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="167" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A167">
+        <v>166</v>
+      </c>
+      <c r="B167" s="5">
+        <v>45813</v>
+      </c>
+      <c r="C167" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D167" t="s">
+        <v>59</v>
+      </c>
+      <c r="F167" s="2">
+        <v>245.82</v>
+      </c>
+      <c r="H167" t="s">
+        <v>1</v>
+      </c>
+      <c r="I167" t="s">
+        <v>1</v>
+      </c>
+      <c r="J167" t="s">
+        <v>1</v>
+      </c>
+      <c r="K167" t="s">
+        <v>1</v>
+      </c>
+      <c r="L167" t="s">
+        <v>75</v>
+      </c>
+      <c r="M167" t="s">
+        <v>110</v>
+      </c>
+      <c r="N167" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="168" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A168">
+        <v>167</v>
+      </c>
+      <c r="B168" s="5">
+        <v>45813</v>
+      </c>
+      <c r="C168" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D168" t="s">
+        <v>59</v>
+      </c>
+      <c r="F168" s="2">
+        <v>19</v>
+      </c>
+      <c r="H168" t="s">
+        <v>1</v>
+      </c>
+      <c r="I168" t="s">
+        <v>1</v>
+      </c>
+      <c r="J168" t="s">
+        <v>1</v>
+      </c>
+      <c r="K168" t="s">
+        <v>1</v>
+      </c>
+      <c r="L168" t="s">
+        <v>75</v>
+      </c>
+      <c r="M168" t="s">
+        <v>117</v>
+      </c>
+      <c r="N168" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="169" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A169">
+        <v>168</v>
+      </c>
+      <c r="B169" s="5">
+        <v>45813</v>
+      </c>
+      <c r="C169" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D169" t="s">
+        <v>59</v>
+      </c>
+      <c r="F169" s="2">
+        <v>115.48</v>
+      </c>
+      <c r="H169" t="s">
+        <v>1</v>
+      </c>
+      <c r="I169" t="s">
+        <v>1</v>
+      </c>
+      <c r="J169" t="s">
+        <v>1</v>
+      </c>
+      <c r="K169" t="s">
+        <v>1</v>
+      </c>
+      <c r="L169" t="s">
+        <v>75</v>
+      </c>
+      <c r="M169" t="s">
+        <v>103</v>
+      </c>
+      <c r="N169" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="170" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A170">
+        <v>169</v>
+      </c>
+      <c r="B170" s="5">
+        <v>45813</v>
+      </c>
+      <c r="C170" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D170" t="s">
+        <v>59</v>
+      </c>
+      <c r="F170" s="2">
+        <v>165</v>
+      </c>
+      <c r="H170" t="s">
+        <v>1</v>
+      </c>
+      <c r="I170" t="s">
+        <v>1</v>
+      </c>
+      <c r="J170" t="s">
+        <v>1</v>
+      </c>
+      <c r="K170" t="s">
+        <v>1</v>
+      </c>
+      <c r="L170" t="s">
+        <v>75</v>
+      </c>
+      <c r="M170" t="s">
+        <v>118</v>
+      </c>
+      <c r="N170" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="171" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A171">
+        <v>170</v>
+      </c>
+      <c r="B171" s="5">
+        <v>45813</v>
+      </c>
+      <c r="C171" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D171" t="s">
+        <v>59</v>
+      </c>
+      <c r="F171" s="2">
+        <v>26</v>
+      </c>
+      <c r="H171" t="s">
+        <v>1</v>
+      </c>
+      <c r="I171" t="s">
+        <v>1</v>
+      </c>
+      <c r="J171" t="s">
+        <v>1</v>
+      </c>
+      <c r="K171" t="s">
+        <v>1</v>
+      </c>
+      <c r="L171" t="s">
+        <v>75</v>
+      </c>
+      <c r="M171" t="s">
+        <v>117</v>
+      </c>
+      <c r="N171" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="172" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A172">
+        <v>171</v>
+      </c>
+      <c r="B172" s="5">
+        <v>45813</v>
+      </c>
+      <c r="C172" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D172" t="s">
+        <v>59</v>
+      </c>
+      <c r="F172" s="2">
+        <v>6</v>
+      </c>
+      <c r="H172" t="s">
+        <v>1</v>
+      </c>
+      <c r="I172" t="s">
+        <v>1</v>
+      </c>
+      <c r="J172" t="s">
+        <v>1</v>
+      </c>
+      <c r="K172" t="s">
+        <v>1</v>
+      </c>
+      <c r="L172" t="s">
+        <v>75</v>
+      </c>
+      <c r="M172" t="s">
+        <v>117</v>
+      </c>
+      <c r="N172" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="173" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A173">
+        <v>172</v>
+      </c>
+      <c r="B173" s="5">
+        <v>45813</v>
+      </c>
+      <c r="C173" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D173" t="s">
+        <v>59</v>
+      </c>
+      <c r="F173" s="2">
+        <v>30</v>
+      </c>
+      <c r="H173" t="s">
+        <v>1</v>
+      </c>
+      <c r="I173" t="s">
+        <v>1</v>
+      </c>
+      <c r="J173" t="s">
+        <v>1</v>
+      </c>
+      <c r="K173" t="s">
+        <v>1</v>
+      </c>
+      <c r="L173" t="s">
+        <v>75</v>
+      </c>
+      <c r="M173" t="s">
+        <v>117</v>
+      </c>
+      <c r="N173" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="174" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A174">
+        <v>173</v>
+      </c>
+      <c r="B174" s="5">
+        <v>45813</v>
+      </c>
+      <c r="C174" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D174" t="s">
+        <v>59</v>
+      </c>
+      <c r="F174" s="2">
+        <v>11</v>
+      </c>
+      <c r="H174" t="s">
+        <v>1</v>
+      </c>
+      <c r="I174" t="s">
+        <v>1</v>
+      </c>
+      <c r="J174" t="s">
+        <v>1</v>
+      </c>
+      <c r="K174" t="s">
+        <v>1</v>
+      </c>
+      <c r="L174" t="s">
+        <v>75</v>
+      </c>
+      <c r="M174" t="s">
+        <v>117</v>
+      </c>
+      <c r="N174" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="175" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A175">
+        <v>174</v>
+      </c>
+      <c r="B175" s="5">
+        <v>45813</v>
+      </c>
+      <c r="C175" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D175" t="s">
+        <v>59</v>
+      </c>
+      <c r="F175" s="2">
+        <v>41</v>
+      </c>
+      <c r="H175" t="s">
+        <v>1</v>
+      </c>
+      <c r="I175" t="s">
+        <v>1</v>
+      </c>
+      <c r="J175" t="s">
+        <v>1</v>
+      </c>
+      <c r="K175" t="s">
+        <v>1</v>
+      </c>
+      <c r="L175" t="s">
+        <v>75</v>
+      </c>
+      <c r="M175" t="s">
+        <v>117</v>
+      </c>
+      <c r="N175" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="176" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A176">
+        <v>175</v>
+      </c>
+      <c r="B176" s="5">
+        <v>45813</v>
+      </c>
+      <c r="C176" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D176" t="s">
+        <v>59</v>
+      </c>
+      <c r="F176" s="2">
+        <v>171.1</v>
+      </c>
+      <c r="H176" t="s">
+        <v>1</v>
+      </c>
+      <c r="I176" t="s">
+        <v>1</v>
+      </c>
+      <c r="J176" t="s">
+        <v>1</v>
+      </c>
+      <c r="K176" t="s">
+        <v>1</v>
+      </c>
+      <c r="L176" t="s">
+        <v>75</v>
+      </c>
+      <c r="M176" t="s">
+        <v>119</v>
+      </c>
+      <c r="N176" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="177" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A177">
+        <v>176</v>
+      </c>
+      <c r="B177" s="5">
+        <v>45813</v>
+      </c>
+      <c r="C177" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D177" t="s">
+        <v>59</v>
+      </c>
+      <c r="F177" s="2">
+        <v>157.69999999999999</v>
+      </c>
+      <c r="H177" t="s">
+        <v>1</v>
+      </c>
+      <c r="I177" t="s">
+        <v>1</v>
+      </c>
+      <c r="J177" t="s">
+        <v>1</v>
+      </c>
+      <c r="K177" t="s">
+        <v>1</v>
+      </c>
+      <c r="L177" t="s">
+        <v>75</v>
+      </c>
+      <c r="M177" t="s">
+        <v>119</v>
+      </c>
+      <c r="N177" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="178" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A178">
+        <v>177</v>
+      </c>
+      <c r="B178" s="5">
+        <v>45813</v>
+      </c>
+      <c r="C178" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D178" t="s">
+        <v>59</v>
+      </c>
+      <c r="F178" s="2">
+        <v>4</v>
+      </c>
+      <c r="H178" t="s">
+        <v>1</v>
+      </c>
+      <c r="I178" t="s">
+        <v>1</v>
+      </c>
+      <c r="J178" t="s">
+        <v>1</v>
+      </c>
+      <c r="K178" t="s">
+        <v>1</v>
+      </c>
+      <c r="L178" t="s">
+        <v>75</v>
+      </c>
+      <c r="M178" t="s">
+        <v>120</v>
+      </c>
+      <c r="N178" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="179" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A179">
+        <v>178</v>
+      </c>
+      <c r="B179" s="5">
+        <v>45813</v>
+      </c>
+      <c r="C179" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D179" t="s">
+        <v>59</v>
+      </c>
+      <c r="F179" s="2">
+        <v>8</v>
+      </c>
+      <c r="H179" t="s">
+        <v>1</v>
+      </c>
+      <c r="I179" t="s">
+        <v>1</v>
+      </c>
+      <c r="J179" t="s">
+        <v>1</v>
+      </c>
+      <c r="K179" t="s">
+        <v>1</v>
+      </c>
+      <c r="L179" t="s">
+        <v>75</v>
+      </c>
+      <c r="M179" t="s">
+        <v>120</v>
+      </c>
+      <c r="N179" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="180" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A180">
+        <v>179</v>
+      </c>
+      <c r="B180" s="5">
+        <v>45813</v>
+      </c>
+      <c r="C180" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D180" t="s">
+        <v>59</v>
+      </c>
+      <c r="F180" s="2">
+        <v>3</v>
+      </c>
+      <c r="H180" t="s">
+        <v>1</v>
+      </c>
+      <c r="I180" t="s">
+        <v>1</v>
+      </c>
+      <c r="J180" t="s">
+        <v>1</v>
+      </c>
+      <c r="K180" t="s">
+        <v>1</v>
+      </c>
+      <c r="L180" t="s">
+        <v>75</v>
+      </c>
+      <c r="M180" t="s">
+        <v>120</v>
+      </c>
+      <c r="N180" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="181" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A181">
+        <v>180</v>
+      </c>
+      <c r="B181" s="5">
+        <v>45813</v>
+      </c>
+      <c r="C181" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D181" t="s">
+        <v>59</v>
+      </c>
+      <c r="F181" s="2">
+        <v>2</v>
+      </c>
+      <c r="H181" t="s">
+        <v>1</v>
+      </c>
+      <c r="I181" t="s">
+        <v>1</v>
+      </c>
+      <c r="J181" t="s">
+        <v>1</v>
+      </c>
+      <c r="K181" t="s">
+        <v>1</v>
+      </c>
+      <c r="L181" t="s">
+        <v>75</v>
+      </c>
+      <c r="M181" t="s">
+        <v>121</v>
+      </c>
+      <c r="N181" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="182" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A182">
+        <v>181</v>
+      </c>
+      <c r="B182" s="5">
+        <v>45813</v>
+      </c>
+      <c r="C182" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D182" t="s">
+        <v>59</v>
+      </c>
+      <c r="F182" s="2">
+        <v>2</v>
+      </c>
+      <c r="H182" t="s">
+        <v>1</v>
+      </c>
+      <c r="I182" t="s">
+        <v>1</v>
+      </c>
+      <c r="J182" t="s">
+        <v>1</v>
+      </c>
+      <c r="K182" t="s">
+        <v>1</v>
+      </c>
+      <c r="L182" t="s">
+        <v>75</v>
+      </c>
+      <c r="M182" t="s">
+        <v>121</v>
+      </c>
+      <c r="N182" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="183" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A183">
+        <v>182</v>
+      </c>
+      <c r="B183" s="5">
+        <v>45813</v>
+      </c>
+      <c r="C183" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D183" t="s">
+        <v>59</v>
+      </c>
+      <c r="F183" s="2">
+        <v>8</v>
+      </c>
+      <c r="H183" t="s">
+        <v>1</v>
+      </c>
+      <c r="I183" t="s">
+        <v>1</v>
+      </c>
+      <c r="J183" t="s">
+        <v>1</v>
+      </c>
+      <c r="K183" t="s">
+        <v>1</v>
+      </c>
+      <c r="L183" t="s">
+        <v>75</v>
+      </c>
+      <c r="M183" t="s">
+        <v>121</v>
+      </c>
+      <c r="N183" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="184" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A184">
+        <v>183</v>
+      </c>
+      <c r="B184" s="5">
+        <v>45813</v>
+      </c>
+      <c r="C184" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D184" t="s">
+        <v>59</v>
+      </c>
+      <c r="F184" s="2">
+        <v>5</v>
+      </c>
+      <c r="H184" t="s">
+        <v>1</v>
+      </c>
+      <c r="I184" t="s">
+        <v>1</v>
+      </c>
+      <c r="J184" t="s">
+        <v>1</v>
+      </c>
+      <c r="K184" t="s">
+        <v>1</v>
+      </c>
+      <c r="L184" t="s">
+        <v>75</v>
+      </c>
+      <c r="M184" t="s">
+        <v>121</v>
+      </c>
+      <c r="N184" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="185" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A185">
+        <v>184</v>
+      </c>
+      <c r="B185" s="5">
+        <v>45813</v>
+      </c>
+      <c r="C185" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D185" t="s">
+        <v>59</v>
+      </c>
+      <c r="F185" s="2">
+        <v>3</v>
+      </c>
+      <c r="H185" t="s">
+        <v>1</v>
+      </c>
+      <c r="I185" t="s">
+        <v>1</v>
+      </c>
+      <c r="J185" t="s">
+        <v>1</v>
+      </c>
+      <c r="K185" t="s">
+        <v>1</v>
+      </c>
+      <c r="L185" t="s">
+        <v>75</v>
+      </c>
+      <c r="M185" t="s">
+        <v>121</v>
+      </c>
+      <c r="N185" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="186" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A186">
+        <v>185</v>
+      </c>
+      <c r="B186" s="5">
+        <v>45813</v>
+      </c>
+      <c r="C186" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D186" t="s">
+        <v>59</v>
+      </c>
+      <c r="F186" s="2">
+        <v>1</v>
+      </c>
+      <c r="H186" t="s">
+        <v>1</v>
+      </c>
+      <c r="I186" t="s">
+        <v>1</v>
+      </c>
+      <c r="J186" t="s">
+        <v>1</v>
+      </c>
+      <c r="K186" t="s">
+        <v>1</v>
+      </c>
+      <c r="L186" t="s">
+        <v>75</v>
+      </c>
+      <c r="M186" t="s">
+        <v>122</v>
+      </c>
+      <c r="N186" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="187" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A187">
+        <v>186</v>
+      </c>
+      <c r="B187" s="5">
+        <v>45813</v>
+      </c>
+      <c r="C187" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D187" t="s">
+        <v>59</v>
+      </c>
+      <c r="F187" s="2">
+        <v>5</v>
+      </c>
+      <c r="H187" t="s">
+        <v>1</v>
+      </c>
+      <c r="I187" t="s">
+        <v>1</v>
+      </c>
+      <c r="J187" t="s">
+        <v>1</v>
+      </c>
+      <c r="K187" t="s">
+        <v>1</v>
+      </c>
+      <c r="L187" t="s">
+        <v>75</v>
+      </c>
+      <c r="M187" t="s">
+        <v>120</v>
+      </c>
+      <c r="N187" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="188" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A188">
+        <v>187</v>
+      </c>
+      <c r="B188" s="5">
+        <v>45813</v>
+      </c>
+      <c r="C188" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D188" t="s">
+        <v>59</v>
+      </c>
+      <c r="F188" s="2">
+        <v>2</v>
+      </c>
+      <c r="H188" t="s">
+        <v>1</v>
+      </c>
+      <c r="I188" t="s">
+        <v>1</v>
+      </c>
+      <c r="J188" t="s">
+        <v>1</v>
+      </c>
+      <c r="K188" t="s">
+        <v>1</v>
+      </c>
+      <c r="L188" t="s">
+        <v>75</v>
+      </c>
+      <c r="M188" t="s">
+        <v>121</v>
+      </c>
+      <c r="N188" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="189" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A189">
+        <v>188</v>
+      </c>
+      <c r="B189" s="5">
+        <v>45813</v>
+      </c>
+      <c r="C189" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D189" t="s">
+        <v>59</v>
+      </c>
+      <c r="F189" s="2">
+        <v>1</v>
+      </c>
+      <c r="H189" t="s">
+        <v>1</v>
+      </c>
+      <c r="I189" t="s">
+        <v>1</v>
+      </c>
+      <c r="J189" t="s">
+        <v>1</v>
+      </c>
+      <c r="K189" t="s">
+        <v>1</v>
+      </c>
+      <c r="L189" t="s">
+        <v>75</v>
+      </c>
+      <c r="M189" t="s">
+        <v>121</v>
+      </c>
+      <c r="N189" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="190" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A190">
+        <v>189</v>
+      </c>
+      <c r="B190" s="5">
+        <v>45813</v>
+      </c>
+      <c r="C190" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D190" t="s">
+        <v>59</v>
+      </c>
+      <c r="F190" s="2">
+        <v>8</v>
+      </c>
+      <c r="H190" t="s">
+        <v>1</v>
+      </c>
+      <c r="I190" t="s">
+        <v>1</v>
+      </c>
+      <c r="J190" t="s">
+        <v>1</v>
+      </c>
+      <c r="K190" t="s">
+        <v>1</v>
+      </c>
+      <c r="L190" t="s">
+        <v>75</v>
+      </c>
+      <c r="M190" t="s">
+        <v>121</v>
+      </c>
+      <c r="N190" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="191" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A191">
+        <v>190</v>
+      </c>
+      <c r="B191" s="5">
+        <v>45813</v>
+      </c>
+      <c r="C191" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D191" t="s">
+        <v>59</v>
+      </c>
+      <c r="F191" s="2">
+        <v>2</v>
+      </c>
+      <c r="H191" t="s">
+        <v>1</v>
+      </c>
+      <c r="I191" t="s">
+        <v>1</v>
+      </c>
+      <c r="J191" t="s">
+        <v>1</v>
+      </c>
+      <c r="K191" t="s">
+        <v>1</v>
+      </c>
+      <c r="L191" t="s">
+        <v>75</v>
+      </c>
+      <c r="M191" t="s">
+        <v>121</v>
+      </c>
+      <c r="N191" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="192" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A192">
+        <v>191</v>
+      </c>
+      <c r="B192" s="5">
+        <v>45813</v>
+      </c>
+      <c r="C192" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D192" t="s">
+        <v>59</v>
+      </c>
+      <c r="F192" s="2">
+        <v>4</v>
+      </c>
+      <c r="H192" t="s">
+        <v>1</v>
+      </c>
+      <c r="I192" t="s">
+        <v>1</v>
+      </c>
+      <c r="J192" t="s">
+        <v>1</v>
+      </c>
+      <c r="K192" t="s">
+        <v>1</v>
+      </c>
+      <c r="L192" t="s">
+        <v>75</v>
+      </c>
+      <c r="M192" t="s">
+        <v>121</v>
+      </c>
+      <c r="N192" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="193" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A193">
+        <v>192</v>
+      </c>
+      <c r="B193" s="5">
+        <v>45813</v>
+      </c>
+      <c r="C193" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D193" t="s">
+        <v>59</v>
+      </c>
+      <c r="F193" s="2">
+        <v>1</v>
+      </c>
+      <c r="H193" t="s">
+        <v>1</v>
+      </c>
+      <c r="I193" t="s">
+        <v>1</v>
+      </c>
+      <c r="J193" t="s">
+        <v>1</v>
+      </c>
+      <c r="K193" t="s">
+        <v>1</v>
+      </c>
+      <c r="L193" t="s">
+        <v>75</v>
+      </c>
+      <c r="M193" t="s">
+        <v>121</v>
+      </c>
+      <c r="N193" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="194" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A194">
+        <v>193</v>
+      </c>
+      <c r="B194" s="5">
+        <v>45820</v>
+      </c>
+      <c r="C194" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D194" t="s">
+        <v>67</v>
+      </c>
+      <c r="F194" s="2">
+        <v>1</v>
+      </c>
+      <c r="H194" t="s">
+        <v>69</v>
+      </c>
+      <c r="I194" t="s">
+        <v>72</v>
+      </c>
+      <c r="J194" t="s">
+        <v>10</v>
+      </c>
+      <c r="K194" t="s">
+        <v>82</v>
+      </c>
+      <c r="L194" t="s">
+        <v>1</v>
+      </c>
+      <c r="M194" t="s">
+        <v>85</v>
+      </c>
+      <c r="N194" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="195" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A195">
+        <v>194</v>
+      </c>
+      <c r="B195" s="5">
+        <v>45820</v>
+      </c>
+      <c r="C195" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D195" t="s">
+        <v>67</v>
+      </c>
+      <c r="F195" s="2">
+        <v>1</v>
+      </c>
+      <c r="H195" t="s">
+        <v>69</v>
+      </c>
+      <c r="I195" t="s">
+        <v>72</v>
+      </c>
+      <c r="J195" t="s">
+        <v>10</v>
+      </c>
+      <c r="K195" t="s">
+        <v>82</v>
+      </c>
+      <c r="L195" t="s">
+        <v>1</v>
+      </c>
+      <c r="M195" t="s">
+        <v>86</v>
+      </c>
+      <c r="N195" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="196" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A196">
+        <v>195</v>
+      </c>
+      <c r="B196" s="5">
+        <v>45820</v>
+      </c>
+      <c r="C196" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D196" t="s">
+        <v>67</v>
+      </c>
+      <c r="F196" s="2">
+        <v>1</v>
+      </c>
+      <c r="H196" t="s">
+        <v>69</v>
+      </c>
+      <c r="I196" t="s">
+        <v>72</v>
+      </c>
+      <c r="J196" t="s">
+        <v>10</v>
+      </c>
+      <c r="K196" t="s">
+        <v>82</v>
+      </c>
+      <c r="L196" t="s">
+        <v>1</v>
+      </c>
+      <c r="M196" t="s">
+        <v>86</v>
+      </c>
+      <c r="N196" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="197" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A197">
+        <v>196</v>
+      </c>
+      <c r="B197" s="5">
+        <v>45820</v>
+      </c>
+      <c r="C197" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D197" t="s">
+        <v>67</v>
+      </c>
+      <c r="F197" s="2">
+        <v>2</v>
+      </c>
+      <c r="H197" t="s">
+        <v>69</v>
+      </c>
+      <c r="I197" t="s">
+        <v>72</v>
+      </c>
+      <c r="J197" t="s">
+        <v>10</v>
+      </c>
+      <c r="K197" t="s">
+        <v>82</v>
+      </c>
+      <c r="L197" t="s">
+        <v>1</v>
+      </c>
+      <c r="M197" t="s">
+        <v>86</v>
+      </c>
+      <c r="N197" t="s">
+        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -1553,113 +9737,113 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
-        <v>44</v>
+      <c r="A1" s="4" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/customize_erpnext/api/bulk_update_scripts/create_material_issue_teamplate.xlsx
+++ b/customize_erpnext/api/bulk_update_scripts/create_material_issue_teamplate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\son.nt\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9918F6C1-5CE1-4ED3-AFFC-BFE3E33FF879}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D8091EE-B4EA-44F7-A49B-FCE69F0F3F24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6D1FB37B-ACCB-49B7-B149-95779F24E43C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6D1FB37B-ACCB-49B7-B149-95779F24E43C}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="2" r:id="rId1"/>
@@ -1320,26 +1320,6 @@
   </cellStyles>
   <dxfs count="5">
     <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
@@ -1364,6 +1344,26 @@
         <vertical/>
         <horizontal/>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1681,25 +1681,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{23D4B30C-D8CA-4512-B19C-3C1EA571E46D}" name="Table2" displayName="Table2" ref="A1:Q197" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{23D4B30C-D8CA-4512-B19C-3C1EA571E46D}" name="Table2" displayName="Table2" ref="A1:Q197" totalsRowShown="0" headerRowDxfId="4">
   <autoFilter ref="A1:Q197" xr:uid="{23D4B30C-D8CA-4512-B19C-3C1EA571E46D}"/>
   <tableColumns count="17">
     <tableColumn id="4" xr3:uid="{43B4B1C8-2F98-4655-B691-168EDDCCE375}" name="Index"/>
     <tableColumn id="5" xr3:uid="{E368165F-11C4-4A20-8BD2-79B3767B3339}" name="stock_entry_type"/>
-    <tableColumn id="1" xr3:uid="{AC16C6E8-21F8-4CEF-AECE-A640C10BF15C}" name="posting_date" dataDxfId="4"/>
-    <tableColumn id="15" xr3:uid="{DF8DC880-8EBD-4FE7-9E87-36E78396FC1D}" name="posting_time" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{AC16C6E8-21F8-4CEF-AECE-A640C10BF15C}" name="posting_date" dataDxfId="3"/>
+    <tableColumn id="15" xr3:uid="{DF8DC880-8EBD-4FE7-9E87-36E78396FC1D}" name="posting_time" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{1C2EE34F-C702-4828-AA4B-D9BFB98CAD12}" name="custom_no"/>
     <tableColumn id="3" xr3:uid="{B681AA7B-0BC4-4606-BA37-476C0A4AF900}" name="custom_material_issue_purpose"/>
+    <tableColumn id="7" xr3:uid="{49AC4B6D-D4F4-45DA-AFD8-B6F8C84E00BD}" name="custom_fg_style"/>
     <tableColumn id="8" xr3:uid="{A0270107-0F84-476C-B8BF-87B64620A48F}" name="custom_fg_size"/>
-    <tableColumn id="7" xr3:uid="{49AC4B6D-D4F4-45DA-AFD8-B6F8C84E00BD}" name="custom_fg_style"/>
     <tableColumn id="9" xr3:uid="{395CAF36-02BF-4FF2-A938-B6C6AAEF0F08}" name="custom_fg_qty"/>
     <tableColumn id="10" xr3:uid="{6A6222F5-7986-4D51-BBF1-416706649393}" name="custom_line"/>
     <tableColumn id="11" xr3:uid="{A4722DCB-058E-41BE-984B-8C716DCA28EC}" name="custom_fg_color"/>
     <tableColumn id="12" xr3:uid="{4893C9B7-1C3A-4701-9A29-8196008DB078}" name="custom_note"/>
     <tableColumn id="16" xr3:uid="{716EBAAA-6185-464A-9B5C-6EEEEF9710A1}" name="item_code"/>
     <tableColumn id="14" xr3:uid="{81D9E945-17C9-4C18-B369-64BDB74B641C}" name="custom_item_name_detail"/>
-    <tableColumn id="6" xr3:uid="{FC72D5FE-5469-4162-9475-201BDE3D3996}" name="qty" dataDxfId="2"/>
-    <tableColumn id="17" xr3:uid="{A168D37F-FF1F-4C20-92EC-5863804C308C}" name="s_warehouse" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{FC72D5FE-5469-4162-9475-201BDE3D3996}" name="qty" dataDxfId="1"/>
+    <tableColumn id="17" xr3:uid="{A168D37F-FF1F-4C20-92EC-5863804C308C}" name="s_warehouse" dataDxfId="0"/>
     <tableColumn id="13" xr3:uid="{77F6BB6F-831A-4EF5-B17F-D18C79F5E860}" name="custom_invoice_number"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2026,7 +2026,7 @@
   <dimension ref="A1:Q197"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2034,16 +2034,19 @@
     <col min="3" max="4" width="14.21875" customWidth="1"/>
     <col min="5" max="5" width="12.5546875" customWidth="1"/>
     <col min="6" max="6" width="12.21875" customWidth="1"/>
-    <col min="9" max="9" width="11.5546875" customWidth="1"/>
-    <col min="11" max="11" width="17.109375" customWidth="1"/>
-    <col min="12" max="12" width="16.21875" customWidth="1"/>
-    <col min="13" max="13" width="16.5546875" customWidth="1"/>
-    <col min="14" max="14" width="13.6640625" customWidth="1"/>
-    <col min="15" max="16" width="17.21875" customWidth="1"/>
-    <col min="17" max="17" width="24.33203125" customWidth="1"/>
-    <col min="18" max="19" width="14.33203125" customWidth="1"/>
-    <col min="20" max="20" width="27.77734375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="47.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.77734375" customWidth="1"/>
+    <col min="8" max="8" width="20.109375" customWidth="1"/>
+    <col min="10" max="10" width="23.77734375" customWidth="1"/>
+    <col min="11" max="11" width="18.5546875" customWidth="1"/>
+    <col min="12" max="12" width="17.109375" customWidth="1"/>
+    <col min="13" max="13" width="16.21875" customWidth="1"/>
+    <col min="14" max="14" width="16.5546875" customWidth="1"/>
+    <col min="15" max="15" width="13.6640625" customWidth="1"/>
+    <col min="16" max="17" width="17.21875" customWidth="1"/>
+    <col min="18" max="18" width="24.33203125" customWidth="1"/>
+    <col min="19" max="20" width="14.33203125" customWidth="1"/>
+    <col min="21" max="21" width="27.77734375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="47.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
@@ -2066,10 +2069,10 @@
         <v>7</v>
       </c>
       <c r="G1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="6" t="s">
         <v>13</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>14</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>12</v>
@@ -2119,10 +2122,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="s">
+        <v>370</v>
+      </c>
+      <c r="H2" t="s">
         <v>210</v>
-      </c>
-      <c r="H2" t="s">
-        <v>370</v>
       </c>
       <c r="J2" t="s">
         <v>0</v>
@@ -2169,10 +2172,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="s">
+        <v>370</v>
+      </c>
+      <c r="H3" t="s">
         <v>210</v>
-      </c>
-      <c r="H3" t="s">
-        <v>370</v>
       </c>
       <c r="J3" t="s">
         <v>0</v>
@@ -2219,10 +2222,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
+        <v>370</v>
+      </c>
+      <c r="H4" t="s">
         <v>210</v>
-      </c>
-      <c r="H4" t="s">
-        <v>370</v>
       </c>
       <c r="J4" t="s">
         <v>1</v>
@@ -2269,10 +2272,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="s">
+        <v>370</v>
+      </c>
+      <c r="H5" t="s">
         <v>210</v>
-      </c>
-      <c r="H5" t="s">
-        <v>370</v>
       </c>
       <c r="J5" t="s">
         <v>1</v>
@@ -2319,10 +2322,10 @@
         <v>0</v>
       </c>
       <c r="G6" t="s">
+        <v>370</v>
+      </c>
+      <c r="H6" t="s">
         <v>210</v>
-      </c>
-      <c r="H6" t="s">
-        <v>370</v>
       </c>
       <c r="J6" t="s">
         <v>0</v>
@@ -2369,10 +2372,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="s">
+        <v>370</v>
+      </c>
+      <c r="H7" t="s">
         <v>210</v>
-      </c>
-      <c r="H7" t="s">
-        <v>370</v>
       </c>
       <c r="J7" t="s">
         <v>0</v>
@@ -2419,10 +2422,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="s">
+        <v>370</v>
+      </c>
+      <c r="H8" t="s">
         <v>210</v>
-      </c>
-      <c r="H8" t="s">
-        <v>370</v>
       </c>
       <c r="J8" t="s">
         <v>0</v>
@@ -2469,10 +2472,10 @@
         <v>2</v>
       </c>
       <c r="G9" t="s">
+        <v>371</v>
+      </c>
+      <c r="H9" t="s">
         <v>210</v>
-      </c>
-      <c r="H9" t="s">
-        <v>371</v>
       </c>
       <c r="I9">
         <v>201</v>
@@ -2522,10 +2525,10 @@
         <v>2</v>
       </c>
       <c r="G10" t="s">
+        <v>371</v>
+      </c>
+      <c r="H10" t="s">
         <v>210</v>
-      </c>
-      <c r="H10" t="s">
-        <v>371</v>
       </c>
       <c r="I10">
         <v>201</v>
@@ -2575,10 +2578,10 @@
         <v>2</v>
       </c>
       <c r="G11" t="s">
+        <v>371</v>
+      </c>
+      <c r="H11" t="s">
         <v>210</v>
-      </c>
-      <c r="H11" t="s">
-        <v>371</v>
       </c>
       <c r="I11">
         <v>201</v>
@@ -2628,10 +2631,10 @@
         <v>2</v>
       </c>
       <c r="G12" t="s">
+        <v>371</v>
+      </c>
+      <c r="H12" t="s">
         <v>210</v>
-      </c>
-      <c r="H12" t="s">
-        <v>371</v>
       </c>
       <c r="I12">
         <v>201</v>
@@ -2681,10 +2684,10 @@
         <v>2</v>
       </c>
       <c r="G13" t="s">
+        <v>371</v>
+      </c>
+      <c r="H13" t="s">
         <v>210</v>
-      </c>
-      <c r="H13" t="s">
-        <v>371</v>
       </c>
       <c r="I13">
         <v>201</v>
@@ -2734,10 +2737,10 @@
         <v>2</v>
       </c>
       <c r="G14" t="s">
+        <v>371</v>
+      </c>
+      <c r="H14" t="s">
         <v>210</v>
-      </c>
-      <c r="H14" t="s">
-        <v>371</v>
       </c>
       <c r="I14">
         <v>201</v>
@@ -2787,10 +2790,10 @@
         <v>2</v>
       </c>
       <c r="G15" t="s">
+        <v>371</v>
+      </c>
+      <c r="H15" t="s">
         <v>210</v>
-      </c>
-      <c r="H15" t="s">
-        <v>371</v>
       </c>
       <c r="I15">
         <v>201</v>
@@ -2840,10 +2843,10 @@
         <v>2</v>
       </c>
       <c r="G16" t="s">
+        <v>371</v>
+      </c>
+      <c r="H16" t="s">
         <v>210</v>
-      </c>
-      <c r="H16" t="s">
-        <v>371</v>
       </c>
       <c r="I16">
         <v>201</v>
@@ -2893,10 +2896,10 @@
         <v>2</v>
       </c>
       <c r="G17" t="s">
+        <v>371</v>
+      </c>
+      <c r="H17" t="s">
         <v>210</v>
-      </c>
-      <c r="H17" t="s">
-        <v>371</v>
       </c>
       <c r="I17">
         <v>201</v>
@@ -2946,10 +2949,10 @@
         <v>2</v>
       </c>
       <c r="G18" t="s">
+        <v>371</v>
+      </c>
+      <c r="H18" t="s">
         <v>210</v>
-      </c>
-      <c r="H18" t="s">
-        <v>371</v>
       </c>
       <c r="I18">
         <v>201</v>
@@ -2999,10 +3002,10 @@
         <v>2</v>
       </c>
       <c r="G19" t="s">
+        <v>371</v>
+      </c>
+      <c r="H19" t="s">
         <v>210</v>
-      </c>
-      <c r="H19" t="s">
-        <v>371</v>
       </c>
       <c r="I19">
         <v>201</v>
@@ -3052,10 +3055,10 @@
         <v>2</v>
       </c>
       <c r="G20" t="s">
+        <v>371</v>
+      </c>
+      <c r="H20" t="s">
         <v>210</v>
-      </c>
-      <c r="H20" t="s">
-        <v>371</v>
       </c>
       <c r="I20">
         <v>201</v>
@@ -3105,10 +3108,10 @@
         <v>2</v>
       </c>
       <c r="G21" t="s">
+        <v>371</v>
+      </c>
+      <c r="H21" t="s">
         <v>210</v>
-      </c>
-      <c r="H21" t="s">
-        <v>371</v>
       </c>
       <c r="I21">
         <v>201</v>
@@ -3158,10 +3161,10 @@
         <v>2</v>
       </c>
       <c r="G22" t="s">
+        <v>371</v>
+      </c>
+      <c r="H22" t="s">
         <v>210</v>
-      </c>
-      <c r="H22" t="s">
-        <v>371</v>
       </c>
       <c r="I22">
         <v>201</v>
@@ -3211,10 +3214,10 @@
         <v>2</v>
       </c>
       <c r="G23" t="s">
+        <v>371</v>
+      </c>
+      <c r="H23" t="s">
         <v>210</v>
-      </c>
-      <c r="H23" t="s">
-        <v>371</v>
       </c>
       <c r="I23">
         <v>201</v>
@@ -3264,10 +3267,10 @@
         <v>2</v>
       </c>
       <c r="G24" t="s">
+        <v>371</v>
+      </c>
+      <c r="H24" t="s">
         <v>210</v>
-      </c>
-      <c r="H24" t="s">
-        <v>371</v>
       </c>
       <c r="I24">
         <v>201</v>
@@ -3317,10 +3320,10 @@
         <v>2</v>
       </c>
       <c r="G25" t="s">
+        <v>371</v>
+      </c>
+      <c r="H25" t="s">
         <v>210</v>
-      </c>
-      <c r="H25" t="s">
-        <v>371</v>
       </c>
       <c r="I25">
         <v>201</v>
@@ -3370,10 +3373,10 @@
         <v>2</v>
       </c>
       <c r="G26" t="s">
+        <v>371</v>
+      </c>
+      <c r="H26" t="s">
         <v>210</v>
-      </c>
-      <c r="H26" t="s">
-        <v>371</v>
       </c>
       <c r="I26">
         <v>201</v>
@@ -3423,10 +3426,10 @@
         <v>2</v>
       </c>
       <c r="G27" t="s">
+        <v>371</v>
+      </c>
+      <c r="H27" t="s">
         <v>210</v>
-      </c>
-      <c r="H27" t="s">
-        <v>371</v>
       </c>
       <c r="I27">
         <v>201</v>
@@ -3476,10 +3479,10 @@
         <v>2</v>
       </c>
       <c r="G28" t="s">
+        <v>371</v>
+      </c>
+      <c r="H28" t="s">
         <v>210</v>
-      </c>
-      <c r="H28" t="s">
-        <v>371</v>
       </c>
       <c r="I28">
         <v>201</v>
@@ -3529,10 +3532,10 @@
         <v>2</v>
       </c>
       <c r="G29" t="s">
+        <v>371</v>
+      </c>
+      <c r="H29" t="s">
         <v>210</v>
-      </c>
-      <c r="H29" t="s">
-        <v>371</v>
       </c>
       <c r="I29">
         <v>201</v>
@@ -3582,10 +3585,10 @@
         <v>2</v>
       </c>
       <c r="G30" t="s">
+        <v>371</v>
+      </c>
+      <c r="H30" t="s">
         <v>210</v>
-      </c>
-      <c r="H30" t="s">
-        <v>371</v>
       </c>
       <c r="I30">
         <v>201</v>
@@ -3635,10 +3638,10 @@
         <v>2</v>
       </c>
       <c r="G31" t="s">
+        <v>371</v>
+      </c>
+      <c r="H31" t="s">
         <v>210</v>
-      </c>
-      <c r="H31" t="s">
-        <v>371</v>
       </c>
       <c r="I31">
         <v>201</v>
@@ -3688,10 +3691,10 @@
         <v>2</v>
       </c>
       <c r="G32" t="s">
+        <v>371</v>
+      </c>
+      <c r="H32" t="s">
         <v>210</v>
-      </c>
-      <c r="H32" t="s">
-        <v>371</v>
       </c>
       <c r="I32">
         <v>201</v>
@@ -3741,10 +3744,10 @@
         <v>2</v>
       </c>
       <c r="G33" t="s">
+        <v>371</v>
+      </c>
+      <c r="H33" t="s">
         <v>210</v>
-      </c>
-      <c r="H33" t="s">
-        <v>371</v>
       </c>
       <c r="I33">
         <v>266</v>
@@ -3794,10 +3797,10 @@
         <v>2</v>
       </c>
       <c r="G34" t="s">
+        <v>371</v>
+      </c>
+      <c r="H34" t="s">
         <v>210</v>
-      </c>
-      <c r="H34" t="s">
-        <v>371</v>
       </c>
       <c r="I34">
         <v>266</v>
@@ -3847,10 +3850,10 @@
         <v>2</v>
       </c>
       <c r="G35" t="s">
+        <v>371</v>
+      </c>
+      <c r="H35" t="s">
         <v>210</v>
-      </c>
-      <c r="H35" t="s">
-        <v>371</v>
       </c>
       <c r="I35">
         <v>266</v>
@@ -3900,10 +3903,10 @@
         <v>2</v>
       </c>
       <c r="G36" t="s">
+        <v>371</v>
+      </c>
+      <c r="H36" t="s">
         <v>210</v>
-      </c>
-      <c r="H36" t="s">
-        <v>371</v>
       </c>
       <c r="I36">
         <v>266</v>
@@ -3953,10 +3956,10 @@
         <v>2</v>
       </c>
       <c r="G37" t="s">
+        <v>371</v>
+      </c>
+      <c r="H37" t="s">
         <v>210</v>
-      </c>
-      <c r="H37" t="s">
-        <v>371</v>
       </c>
       <c r="I37">
         <v>266</v>
@@ -4006,10 +4009,10 @@
         <v>2</v>
       </c>
       <c r="G38" t="s">
+        <v>371</v>
+      </c>
+      <c r="H38" t="s">
         <v>210</v>
-      </c>
-      <c r="H38" t="s">
-        <v>371</v>
       </c>
       <c r="I38">
         <v>266</v>
@@ -4059,10 +4062,10 @@
         <v>2</v>
       </c>
       <c r="G39" t="s">
+        <v>371</v>
+      </c>
+      <c r="H39" t="s">
         <v>210</v>
-      </c>
-      <c r="H39" t="s">
-        <v>371</v>
       </c>
       <c r="I39">
         <v>266</v>
@@ -4112,10 +4115,10 @@
         <v>2</v>
       </c>
       <c r="G40" t="s">
+        <v>371</v>
+      </c>
+      <c r="H40" t="s">
         <v>210</v>
-      </c>
-      <c r="H40" t="s">
-        <v>371</v>
       </c>
       <c r="I40">
         <v>266</v>
@@ -4165,10 +4168,10 @@
         <v>2</v>
       </c>
       <c r="G41" t="s">
+        <v>371</v>
+      </c>
+      <c r="H41" t="s">
         <v>210</v>
-      </c>
-      <c r="H41" t="s">
-        <v>371</v>
       </c>
       <c r="I41">
         <v>266</v>
@@ -4218,10 +4221,10 @@
         <v>2</v>
       </c>
       <c r="G42" t="s">
+        <v>371</v>
+      </c>
+      <c r="H42" t="s">
         <v>210</v>
-      </c>
-      <c r="H42" t="s">
-        <v>371</v>
       </c>
       <c r="I42">
         <v>266</v>
@@ -4271,10 +4274,10 @@
         <v>2</v>
       </c>
       <c r="G43" t="s">
+        <v>371</v>
+      </c>
+      <c r="H43" t="s">
         <v>210</v>
-      </c>
-      <c r="H43" t="s">
-        <v>371</v>
       </c>
       <c r="I43">
         <v>266</v>
@@ -4324,10 +4327,10 @@
         <v>2</v>
       </c>
       <c r="G44" t="s">
+        <v>371</v>
+      </c>
+      <c r="H44" t="s">
         <v>210</v>
-      </c>
-      <c r="H44" t="s">
-        <v>371</v>
       </c>
       <c r="I44">
         <v>266</v>
@@ -4377,10 +4380,10 @@
         <v>2</v>
       </c>
       <c r="G45" t="s">
+        <v>371</v>
+      </c>
+      <c r="H45" t="s">
         <v>210</v>
-      </c>
-      <c r="H45" t="s">
-        <v>371</v>
       </c>
       <c r="I45">
         <v>266</v>
@@ -4430,10 +4433,10 @@
         <v>2</v>
       </c>
       <c r="G46" t="s">
+        <v>371</v>
+      </c>
+      <c r="H46" t="s">
         <v>210</v>
-      </c>
-      <c r="H46" t="s">
-        <v>371</v>
       </c>
       <c r="I46">
         <v>266</v>
@@ -4483,10 +4486,10 @@
         <v>2</v>
       </c>
       <c r="G47" t="s">
+        <v>371</v>
+      </c>
+      <c r="H47" t="s">
         <v>210</v>
-      </c>
-      <c r="H47" t="s">
-        <v>371</v>
       </c>
       <c r="I47">
         <v>266</v>
@@ -4536,10 +4539,10 @@
         <v>2</v>
       </c>
       <c r="G48" t="s">
+        <v>371</v>
+      </c>
+      <c r="H48" t="s">
         <v>210</v>
-      </c>
-      <c r="H48" t="s">
-        <v>371</v>
       </c>
       <c r="I48">
         <v>266</v>
@@ -4589,10 +4592,10 @@
         <v>2</v>
       </c>
       <c r="G49" t="s">
+        <v>371</v>
+      </c>
+      <c r="H49" t="s">
         <v>210</v>
-      </c>
-      <c r="H49" t="s">
-        <v>371</v>
       </c>
       <c r="I49">
         <v>266</v>
@@ -4642,10 +4645,10 @@
         <v>2</v>
       </c>
       <c r="G50" t="s">
+        <v>371</v>
+      </c>
+      <c r="H50" t="s">
         <v>210</v>
-      </c>
-      <c r="H50" t="s">
-        <v>371</v>
       </c>
       <c r="I50">
         <v>266</v>
@@ -4695,10 +4698,10 @@
         <v>2</v>
       </c>
       <c r="G51" t="s">
+        <v>371</v>
+      </c>
+      <c r="H51" t="s">
         <v>210</v>
-      </c>
-      <c r="H51" t="s">
-        <v>371</v>
       </c>
       <c r="I51">
         <v>266</v>
@@ -4748,10 +4751,10 @@
         <v>2</v>
       </c>
       <c r="G52" t="s">
+        <v>371</v>
+      </c>
+      <c r="H52" t="s">
         <v>210</v>
-      </c>
-      <c r="H52" t="s">
-        <v>371</v>
       </c>
       <c r="I52">
         <v>266</v>
@@ -4801,10 +4804,10 @@
         <v>2</v>
       </c>
       <c r="G53" t="s">
+        <v>371</v>
+      </c>
+      <c r="H53" t="s">
         <v>210</v>
-      </c>
-      <c r="H53" t="s">
-        <v>371</v>
       </c>
       <c r="I53">
         <v>266</v>
@@ -4854,10 +4857,10 @@
         <v>2</v>
       </c>
       <c r="G54" t="s">
+        <v>371</v>
+      </c>
+      <c r="H54" t="s">
         <v>210</v>
-      </c>
-      <c r="H54" t="s">
-        <v>371</v>
       </c>
       <c r="I54">
         <v>266</v>
@@ -4907,10 +4910,10 @@
         <v>2</v>
       </c>
       <c r="G55" t="s">
+        <v>371</v>
+      </c>
+      <c r="H55" t="s">
         <v>210</v>
-      </c>
-      <c r="H55" t="s">
-        <v>371</v>
       </c>
       <c r="I55">
         <v>266</v>
@@ -4960,10 +4963,10 @@
         <v>2</v>
       </c>
       <c r="G56" t="s">
+        <v>371</v>
+      </c>
+      <c r="H56" t="s">
         <v>210</v>
-      </c>
-      <c r="H56" t="s">
-        <v>371</v>
       </c>
       <c r="I56">
         <v>266</v>
@@ -5013,10 +5016,10 @@
         <v>2</v>
       </c>
       <c r="G57" t="s">
+        <v>371</v>
+      </c>
+      <c r="H57" t="s">
         <v>210</v>
-      </c>
-      <c r="H57" t="s">
-        <v>371</v>
       </c>
       <c r="I57">
         <v>266</v>
@@ -5066,10 +5069,10 @@
         <v>2</v>
       </c>
       <c r="G58" t="s">
+        <v>371</v>
+      </c>
+      <c r="H58" t="s">
         <v>210</v>
-      </c>
-      <c r="H58" t="s">
-        <v>371</v>
       </c>
       <c r="I58">
         <v>266</v>
@@ -5119,10 +5122,10 @@
         <v>2</v>
       </c>
       <c r="G59" t="s">
+        <v>371</v>
+      </c>
+      <c r="H59" t="s">
         <v>210</v>
-      </c>
-      <c r="H59" t="s">
-        <v>371</v>
       </c>
       <c r="I59">
         <v>266</v>
@@ -5172,10 +5175,10 @@
         <v>2</v>
       </c>
       <c r="G60" t="s">
+        <v>371</v>
+      </c>
+      <c r="H60" t="s">
         <v>210</v>
-      </c>
-      <c r="H60" t="s">
-        <v>371</v>
       </c>
       <c r="I60">
         <v>266</v>
@@ -5225,10 +5228,10 @@
         <v>2</v>
       </c>
       <c r="G61" t="s">
+        <v>371</v>
+      </c>
+      <c r="H61" t="s">
         <v>210</v>
-      </c>
-      <c r="H61" t="s">
-        <v>371</v>
       </c>
       <c r="I61">
         <v>266</v>
@@ -5278,10 +5281,10 @@
         <v>2</v>
       </c>
       <c r="G62" t="s">
+        <v>371</v>
+      </c>
+      <c r="H62" t="s">
         <v>210</v>
-      </c>
-      <c r="H62" t="s">
-        <v>371</v>
       </c>
       <c r="I62">
         <v>266</v>
@@ -5331,10 +5334,10 @@
         <v>2</v>
       </c>
       <c r="G63" t="s">
+        <v>372</v>
+      </c>
+      <c r="H63" t="s">
         <v>210</v>
-      </c>
-      <c r="H63" t="s">
-        <v>372</v>
       </c>
       <c r="I63">
         <v>314</v>
@@ -5384,10 +5387,10 @@
         <v>2</v>
       </c>
       <c r="G64" t="s">
+        <v>372</v>
+      </c>
+      <c r="H64" t="s">
         <v>210</v>
-      </c>
-      <c r="H64" t="s">
-        <v>372</v>
       </c>
       <c r="I64">
         <v>314</v>
@@ -5437,10 +5440,10 @@
         <v>2</v>
       </c>
       <c r="G65" t="s">
+        <v>372</v>
+      </c>
+      <c r="H65" t="s">
         <v>210</v>
-      </c>
-      <c r="H65" t="s">
-        <v>372</v>
       </c>
       <c r="I65">
         <v>314</v>
@@ -5490,10 +5493,10 @@
         <v>2</v>
       </c>
       <c r="G66" t="s">
+        <v>372</v>
+      </c>
+      <c r="H66" t="s">
         <v>210</v>
-      </c>
-      <c r="H66" t="s">
-        <v>372</v>
       </c>
       <c r="I66">
         <v>314</v>
@@ -5543,10 +5546,10 @@
         <v>2</v>
       </c>
       <c r="G67" t="s">
+        <v>372</v>
+      </c>
+      <c r="H67" t="s">
         <v>210</v>
-      </c>
-      <c r="H67" t="s">
-        <v>372</v>
       </c>
       <c r="I67">
         <v>314</v>
@@ -5596,10 +5599,10 @@
         <v>2</v>
       </c>
       <c r="G68" t="s">
+        <v>372</v>
+      </c>
+      <c r="H68" t="s">
         <v>210</v>
-      </c>
-      <c r="H68" t="s">
-        <v>372</v>
       </c>
       <c r="I68">
         <v>314</v>
@@ -5649,10 +5652,10 @@
         <v>2</v>
       </c>
       <c r="G69" t="s">
+        <v>372</v>
+      </c>
+      <c r="H69" t="s">
         <v>210</v>
-      </c>
-      <c r="H69" t="s">
-        <v>372</v>
       </c>
       <c r="I69">
         <v>314</v>
@@ -5702,10 +5705,10 @@
         <v>2</v>
       </c>
       <c r="G70" t="s">
+        <v>372</v>
+      </c>
+      <c r="H70" t="s">
         <v>210</v>
-      </c>
-      <c r="H70" t="s">
-        <v>372</v>
       </c>
       <c r="I70">
         <v>314</v>
@@ -5755,10 +5758,10 @@
         <v>2</v>
       </c>
       <c r="G71" t="s">
+        <v>372</v>
+      </c>
+      <c r="H71" t="s">
         <v>210</v>
-      </c>
-      <c r="H71" t="s">
-        <v>372</v>
       </c>
       <c r="I71">
         <v>314</v>
@@ -5808,10 +5811,10 @@
         <v>2</v>
       </c>
       <c r="G72" t="s">
+        <v>372</v>
+      </c>
+      <c r="H72" t="s">
         <v>210</v>
-      </c>
-      <c r="H72" t="s">
-        <v>372</v>
       </c>
       <c r="I72">
         <v>314</v>
@@ -9097,7 +9100,7 @@
       <c r="E145" t="s">
         <v>41</v>
       </c>
-      <c r="G145" t="s">
+      <c r="H145" t="s">
         <v>1</v>
       </c>
       <c r="I145" t="s">
@@ -9139,7 +9142,7 @@
       <c r="E146" t="s">
         <v>41</v>
       </c>
-      <c r="G146" t="s">
+      <c r="H146" t="s">
         <v>1</v>
       </c>
       <c r="I146" t="s">
@@ -9181,7 +9184,7 @@
       <c r="E147" t="s">
         <v>41</v>
       </c>
-      <c r="G147" t="s">
+      <c r="H147" t="s">
         <v>1</v>
       </c>
       <c r="I147" t="s">
@@ -9223,7 +9226,7 @@
       <c r="E148" t="s">
         <v>41</v>
       </c>
-      <c r="G148" t="s">
+      <c r="H148" t="s">
         <v>1</v>
       </c>
       <c r="I148" t="s">
@@ -9265,7 +9268,7 @@
       <c r="E149" t="s">
         <v>41</v>
       </c>
-      <c r="G149" t="s">
+      <c r="H149" t="s">
         <v>1</v>
       </c>
       <c r="I149" t="s">
@@ -9307,7 +9310,7 @@
       <c r="E150" t="s">
         <v>41</v>
       </c>
-      <c r="G150" t="s">
+      <c r="H150" t="s">
         <v>1</v>
       </c>
       <c r="I150" t="s">
@@ -9349,7 +9352,7 @@
       <c r="E151" t="s">
         <v>41</v>
       </c>
-      <c r="G151" t="s">
+      <c r="H151" t="s">
         <v>1</v>
       </c>
       <c r="I151" t="s">
@@ -9391,7 +9394,7 @@
       <c r="E152" t="s">
         <v>41</v>
       </c>
-      <c r="G152" t="s">
+      <c r="H152" t="s">
         <v>1</v>
       </c>
       <c r="I152" t="s">
@@ -9433,7 +9436,7 @@
       <c r="E153" t="s">
         <v>41</v>
       </c>
-      <c r="G153" t="s">
+      <c r="H153" t="s">
         <v>1</v>
       </c>
       <c r="I153" t="s">
@@ -9475,7 +9478,7 @@
       <c r="E154" t="s">
         <v>41</v>
       </c>
-      <c r="G154" t="s">
+      <c r="H154" t="s">
         <v>1</v>
       </c>
       <c r="I154" t="s">
@@ -9517,7 +9520,7 @@
       <c r="E155" t="s">
         <v>41</v>
       </c>
-      <c r="G155" t="s">
+      <c r="H155" t="s">
         <v>1</v>
       </c>
       <c r="I155" t="s">
@@ -9559,7 +9562,7 @@
       <c r="E156" t="s">
         <v>41</v>
       </c>
-      <c r="G156" t="s">
+      <c r="H156" t="s">
         <v>1</v>
       </c>
       <c r="I156" t="s">
@@ -9601,7 +9604,7 @@
       <c r="E157" t="s">
         <v>41</v>
       </c>
-      <c r="G157" t="s">
+      <c r="H157" t="s">
         <v>1</v>
       </c>
       <c r="I157" t="s">
@@ -9643,7 +9646,7 @@
       <c r="E158" t="s">
         <v>41</v>
       </c>
-      <c r="G158" t="s">
+      <c r="H158" t="s">
         <v>1</v>
       </c>
       <c r="I158" t="s">
@@ -9685,7 +9688,7 @@
       <c r="E159" t="s">
         <v>41</v>
       </c>
-      <c r="G159" t="s">
+      <c r="H159" t="s">
         <v>1</v>
       </c>
       <c r="I159" t="s">
@@ -9727,7 +9730,7 @@
       <c r="E160" t="s">
         <v>41</v>
       </c>
-      <c r="G160" t="s">
+      <c r="H160" t="s">
         <v>1</v>
       </c>
       <c r="I160" t="s">
@@ -9769,7 +9772,7 @@
       <c r="E161" t="s">
         <v>41</v>
       </c>
-      <c r="G161" t="s">
+      <c r="H161" t="s">
         <v>1</v>
       </c>
       <c r="I161" t="s">
@@ -9811,7 +9814,7 @@
       <c r="E162" t="s">
         <v>41</v>
       </c>
-      <c r="G162" t="s">
+      <c r="H162" t="s">
         <v>1</v>
       </c>
       <c r="I162" t="s">
@@ -9853,7 +9856,7 @@
       <c r="E163" t="s">
         <v>41</v>
       </c>
-      <c r="G163" t="s">
+      <c r="H163" t="s">
         <v>1</v>
       </c>
       <c r="I163" t="s">
@@ -9895,7 +9898,7 @@
       <c r="E164" t="s">
         <v>41</v>
       </c>
-      <c r="G164" t="s">
+      <c r="H164" t="s">
         <v>1</v>
       </c>
       <c r="I164" t="s">
@@ -9937,7 +9940,7 @@
       <c r="E165" t="s">
         <v>41</v>
       </c>
-      <c r="G165" t="s">
+      <c r="H165" t="s">
         <v>1</v>
       </c>
       <c r="I165" t="s">
@@ -9979,7 +9982,7 @@
       <c r="E166" t="s">
         <v>41</v>
       </c>
-      <c r="G166" t="s">
+      <c r="H166" t="s">
         <v>1</v>
       </c>
       <c r="I166" t="s">
@@ -10021,7 +10024,7 @@
       <c r="E167" t="s">
         <v>41</v>
       </c>
-      <c r="G167" t="s">
+      <c r="H167" t="s">
         <v>1</v>
       </c>
       <c r="I167" t="s">
@@ -10063,7 +10066,7 @@
       <c r="E168" t="s">
         <v>41</v>
       </c>
-      <c r="G168" t="s">
+      <c r="H168" t="s">
         <v>1</v>
       </c>
       <c r="I168" t="s">
@@ -10105,7 +10108,7 @@
       <c r="E169" t="s">
         <v>41</v>
       </c>
-      <c r="G169" t="s">
+      <c r="H169" t="s">
         <v>1</v>
       </c>
       <c r="I169" t="s">
@@ -10147,7 +10150,7 @@
       <c r="E170" t="s">
         <v>41</v>
       </c>
-      <c r="G170" t="s">
+      <c r="H170" t="s">
         <v>1</v>
       </c>
       <c r="I170" t="s">
@@ -10189,7 +10192,7 @@
       <c r="E171" t="s">
         <v>41</v>
       </c>
-      <c r="G171" t="s">
+      <c r="H171" t="s">
         <v>1</v>
       </c>
       <c r="I171" t="s">
@@ -10231,7 +10234,7 @@
       <c r="E172" t="s">
         <v>41</v>
       </c>
-      <c r="G172" t="s">
+      <c r="H172" t="s">
         <v>1</v>
       </c>
       <c r="I172" t="s">
@@ -10273,7 +10276,7 @@
       <c r="E173" t="s">
         <v>41</v>
       </c>
-      <c r="G173" t="s">
+      <c r="H173" t="s">
         <v>1</v>
       </c>
       <c r="I173" t="s">
@@ -10315,7 +10318,7 @@
       <c r="E174" t="s">
         <v>41</v>
       </c>
-      <c r="G174" t="s">
+      <c r="H174" t="s">
         <v>1</v>
       </c>
       <c r="I174" t="s">
@@ -10357,7 +10360,7 @@
       <c r="E175" t="s">
         <v>41</v>
       </c>
-      <c r="G175" t="s">
+      <c r="H175" t="s">
         <v>1</v>
       </c>
       <c r="I175" t="s">
@@ -10399,7 +10402,7 @@
       <c r="E176" t="s">
         <v>41</v>
       </c>
-      <c r="G176" t="s">
+      <c r="H176" t="s">
         <v>1</v>
       </c>
       <c r="I176" t="s">
@@ -10441,7 +10444,7 @@
       <c r="E177" t="s">
         <v>41</v>
       </c>
-      <c r="G177" t="s">
+      <c r="H177" t="s">
         <v>1</v>
       </c>
       <c r="I177" t="s">
@@ -10483,7 +10486,7 @@
       <c r="E178" t="s">
         <v>41</v>
       </c>
-      <c r="G178" t="s">
+      <c r="H178" t="s">
         <v>1</v>
       </c>
       <c r="I178" t="s">
@@ -10525,7 +10528,7 @@
       <c r="E179" t="s">
         <v>41</v>
       </c>
-      <c r="G179" t="s">
+      <c r="H179" t="s">
         <v>1</v>
       </c>
       <c r="I179" t="s">
@@ -10567,7 +10570,7 @@
       <c r="E180" t="s">
         <v>41</v>
       </c>
-      <c r="G180" t="s">
+      <c r="H180" t="s">
         <v>1</v>
       </c>
       <c r="I180" t="s">
@@ -10609,7 +10612,7 @@
       <c r="E181" t="s">
         <v>41</v>
       </c>
-      <c r="G181" t="s">
+      <c r="H181" t="s">
         <v>1</v>
       </c>
       <c r="I181" t="s">
@@ -10651,7 +10654,7 @@
       <c r="E182" t="s">
         <v>41</v>
       </c>
-      <c r="G182" t="s">
+      <c r="H182" t="s">
         <v>1</v>
       </c>
       <c r="I182" t="s">
@@ -10693,7 +10696,7 @@
       <c r="E183" t="s">
         <v>41</v>
       </c>
-      <c r="G183" t="s">
+      <c r="H183" t="s">
         <v>1</v>
       </c>
       <c r="I183" t="s">
@@ -10735,7 +10738,7 @@
       <c r="E184" t="s">
         <v>41</v>
       </c>
-      <c r="G184" t="s">
+      <c r="H184" t="s">
         <v>1</v>
       </c>
       <c r="I184" t="s">
@@ -10777,7 +10780,7 @@
       <c r="E185" t="s">
         <v>41</v>
       </c>
-      <c r="G185" t="s">
+      <c r="H185" t="s">
         <v>1</v>
       </c>
       <c r="I185" t="s">
@@ -10819,7 +10822,7 @@
       <c r="E186" t="s">
         <v>41</v>
       </c>
-      <c r="G186" t="s">
+      <c r="H186" t="s">
         <v>1</v>
       </c>
       <c r="I186" t="s">
@@ -10861,7 +10864,7 @@
       <c r="E187" t="s">
         <v>41</v>
       </c>
-      <c r="G187" t="s">
+      <c r="H187" t="s">
         <v>1</v>
       </c>
       <c r="I187" t="s">
@@ -10903,7 +10906,7 @@
       <c r="E188" t="s">
         <v>41</v>
       </c>
-      <c r="G188" t="s">
+      <c r="H188" t="s">
         <v>1</v>
       </c>
       <c r="I188" t="s">
@@ -10945,7 +10948,7 @@
       <c r="E189" t="s">
         <v>41</v>
       </c>
-      <c r="G189" t="s">
+      <c r="H189" t="s">
         <v>1</v>
       </c>
       <c r="I189" t="s">
@@ -10987,7 +10990,7 @@
       <c r="E190" t="s">
         <v>41</v>
       </c>
-      <c r="G190" t="s">
+      <c r="H190" t="s">
         <v>1</v>
       </c>
       <c r="I190" t="s">
@@ -11029,7 +11032,7 @@
       <c r="E191" t="s">
         <v>41</v>
       </c>
-      <c r="G191" t="s">
+      <c r="H191" t="s">
         <v>1</v>
       </c>
       <c r="I191" t="s">
@@ -11071,7 +11074,7 @@
       <c r="E192" t="s">
         <v>41</v>
       </c>
-      <c r="G192" t="s">
+      <c r="H192" t="s">
         <v>1</v>
       </c>
       <c r="I192" t="s">
@@ -11113,7 +11116,7 @@
       <c r="E193" t="s">
         <v>41</v>
       </c>
-      <c r="G193" t="s">
+      <c r="H193" t="s">
         <v>1</v>
       </c>
       <c r="I193" t="s">
@@ -11155,7 +11158,7 @@
       <c r="E194" t="s">
         <v>42</v>
       </c>
-      <c r="G194" t="s">
+      <c r="H194" t="s">
         <v>43</v>
       </c>
       <c r="I194" t="s">
@@ -11197,7 +11200,7 @@
       <c r="E195" t="s">
         <v>42</v>
       </c>
-      <c r="G195" t="s">
+      <c r="H195" t="s">
         <v>43</v>
       </c>
       <c r="I195" t="s">
@@ -11239,7 +11242,7 @@
       <c r="E196" t="s">
         <v>42</v>
       </c>
-      <c r="G196" t="s">
+      <c r="H196" t="s">
         <v>43</v>
       </c>
       <c r="I196" t="s">
@@ -11281,7 +11284,7 @@
       <c r="E197" t="s">
         <v>42</v>
       </c>
-      <c r="G197" t="s">
+      <c r="H197" t="s">
         <v>43</v>
       </c>
       <c r="I197" t="s">
